--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_12_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_12_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-782718.0989378903</v>
+        <v>-783493.9134645122</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681862</v>
       </c>
     </row>
     <row r="9">
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.121474269160211e-12</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-1.114131009671837e-12</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.765157819097949</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>5.765157819097949</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.424434953660365</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>6.424434953660366</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.424434953660365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="K10" t="n">
         <v>7.293863480540836</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.424434953660366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.8473936573217</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>245.1160793448693</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>261.2490194212141</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>106.1093725772951</v>
+        <v>292.4625642935632</v>
       </c>
       <c r="H11" t="n">
-        <v>210.9168209648782</v>
+        <v>210.9168209648784</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.18521044981289</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.07386230193401</v>
+        <v>72.0738623019342</v>
       </c>
       <c r="T11" t="n">
-        <v>98.80585950455564</v>
+        <v>98.80585950455581</v>
       </c>
       <c r="U11" t="n">
-        <v>129.5668924603755</v>
+        <v>129.5668924603757</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.6642051884461</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.6611006664814</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>83.34878440239574</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.8180554171624</v>
+        <v>264.8180554171626</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.50310927627147</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>49.15656759332764</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>24.24340724057221</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>34.16441737310048</v>
+        <v>34.16441737310065</v>
       </c>
       <c r="F12" t="n">
-        <v>21.63721574947594</v>
+        <v>21.63721574947611</v>
       </c>
       <c r="G12" t="n">
         <v>135.7432816712511</v>
       </c>
       <c r="H12" t="n">
-        <v>32.79262670708999</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.86565315730873</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.3148555314919</v>
+        <v>77.31485553149192</v>
       </c>
       <c r="S12" t="n">
-        <v>163.762064166145</v>
+        <v>41.89304783207184</v>
       </c>
       <c r="T12" t="n">
-        <v>197.2542234760137</v>
+        <v>75.3852071419405</v>
       </c>
       <c r="U12" t="n">
         <v>224.6387607162939</v>
       </c>
       <c r="V12" t="n">
-        <v>110.0397147055818</v>
+        <v>110.0397147055819</v>
       </c>
       <c r="W12" t="n">
-        <v>128.1203304159267</v>
+        <v>128.1203304159268</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.59261327440508</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>159.5981249683661</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.21467515661045</v>
+        <v>58.21467515661062</v>
       </c>
       <c r="C13" t="n">
-        <v>45.46753659712898</v>
+        <v>45.46753659712915</v>
       </c>
       <c r="D13" t="n">
-        <v>17.94918897876275</v>
+        <v>27.13655018044618</v>
       </c>
       <c r="E13" t="n">
-        <v>25.10560783912582</v>
+        <v>25.10560783912599</v>
       </c>
       <c r="F13" t="n">
-        <v>24.29000507573114</v>
+        <v>24.29000507573132</v>
       </c>
       <c r="G13" t="n">
-        <v>45.78588991671305</v>
+        <v>45.78588991671322</v>
       </c>
       <c r="H13" t="n">
-        <v>37.67851330778358</v>
+        <v>37.67851330778375</v>
       </c>
       <c r="I13" t="n">
-        <v>24.83198225245689</v>
+        <v>24.83198225245707</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.96994468184566</v>
+        <v>40.96994468184585</v>
       </c>
       <c r="S13" t="n">
-        <v>96.39851157044342</v>
+        <v>96.39851157044359</v>
       </c>
       <c r="T13" t="n">
-        <v>105.4607145730599</v>
+        <v>105.4607145730601</v>
       </c>
       <c r="U13" t="n">
-        <v>164.1704531835733</v>
+        <v>164.1704531835735</v>
       </c>
       <c r="V13" t="n">
-        <v>131.0673347328658</v>
+        <v>131.067334732866</v>
       </c>
       <c r="W13" t="n">
-        <v>164.2235605533422</v>
+        <v>164.2235605533423</v>
       </c>
       <c r="X13" t="n">
-        <v>104.2713435982359</v>
+        <v>95.08398239654883</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.87965753369487</v>
+        <v>96.87965753369504</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>261.8473936573218</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>245.1160793448694</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.7357164205252</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>285.4248471464676</v>
       </c>
       <c r="G14" t="n">
-        <v>292.4625642935632</v>
+        <v>259.7474943637429</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9168209648784</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>63.18521044981283</v>
+        <v>63.18521044981289</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.07386230193413</v>
+        <v>72.07386230193418</v>
       </c>
       <c r="T14" t="n">
-        <v>98.80585950455576</v>
+        <v>98.80585950455581</v>
       </c>
       <c r="U14" t="n">
-        <v>129.5668924603756</v>
+        <v>129.5668924603757</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>236.2199048706963</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>49.15656759332775</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
         <v>146.1124235746456</v>
@@ -1698,13 +1698,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>13.87426533717785</v>
+        <v>13.87426533717791</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7589952089385</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>46.90264783222371</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>77.3148555314919</v>
       </c>
       <c r="S15" t="n">
-        <v>41.89304783207178</v>
+        <v>41.89304783207184</v>
       </c>
       <c r="T15" t="n">
-        <v>75.38520714194044</v>
+        <v>75.3852071419405</v>
       </c>
       <c r="U15" t="n">
         <v>102.7697443822207</v>
@@ -1746,13 +1746,13 @@
         <v>110.0397147055819</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>128.1203304159268</v>
       </c>
       <c r="X15" t="n">
-        <v>82.59261327440502</v>
+        <v>115.385239981494</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.80213508451278</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.21467515661057</v>
+        <v>58.21467515661062</v>
       </c>
       <c r="C16" t="n">
-        <v>45.4675365971291</v>
+        <v>45.46753659712915</v>
       </c>
       <c r="D16" t="n">
-        <v>27.13655018044612</v>
+        <v>27.13655018044618</v>
       </c>
       <c r="E16" t="n">
-        <v>15.91824663744045</v>
+        <v>25.10560783912599</v>
       </c>
       <c r="F16" t="n">
-        <v>24.29000507573126</v>
+        <v>24.29000507573132</v>
       </c>
       <c r="G16" t="n">
-        <v>45.78588991671316</v>
+        <v>45.78588991671322</v>
       </c>
       <c r="H16" t="n">
-        <v>37.67851330778369</v>
+        <v>37.67851330778375</v>
       </c>
       <c r="I16" t="n">
-        <v>24.83198225245701</v>
+        <v>24.83198225245706</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.96994468184579</v>
+        <v>31.78258348015874</v>
       </c>
       <c r="S16" t="n">
-        <v>96.39851157044353</v>
+        <v>96.39851157044357</v>
       </c>
       <c r="T16" t="n">
-        <v>105.46071457306</v>
+        <v>105.4607145730601</v>
       </c>
       <c r="U16" t="n">
-        <v>164.1704531835734</v>
+        <v>164.1704531835735</v>
       </c>
       <c r="V16" t="n">
-        <v>131.0673347328659</v>
+        <v>131.067334732866</v>
       </c>
       <c r="W16" t="n">
         <v>164.2235605533423</v>
       </c>
       <c r="X16" t="n">
-        <v>104.271343598236</v>
+        <v>104.2713435982361</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.87965753369498</v>
+        <v>96.87965753369504</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160.1847334799232</v>
+        <v>160.1847334799221</v>
       </c>
       <c r="C17" t="n">
         <v>143.4534191674697</v>
@@ -1859,7 +1859,7 @@
         <v>190.7999041161635</v>
       </c>
       <c r="H17" t="n">
-        <v>109.2541607874787</v>
+        <v>109.2541607874796</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1926,13 +1926,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>122.121171047355</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.3148555314919</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6387607162939</v>
+        <v>1.107084204820991</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>209.2243447646061</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.10922570101302</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>135.9471255213346</v>
+        <v>196.0563512223476</v>
       </c>
       <c r="T19" t="n">
         <v>3.79805439566036</v>
@@ -2084,7 +2084,7 @@
         <v>143.4534191674697</v>
       </c>
       <c r="D20" t="n">
-        <v>133.0730562431255</v>
+        <v>133.0730562431261</v>
       </c>
       <c r="E20" t="n">
         <v>159.5863592438145</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>120.8218458085</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7589952089385</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>76.86565315730873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.3148555314919</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.762064166145</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2542234760137</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>1.107084204820991</v>
       </c>
       <c r="V21" t="n">
-        <v>53.78653611687263</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>196.0563512223476</v>
       </c>
       <c r="T22" t="n">
-        <v>199.8544056180079</v>
+        <v>3.79805439566036</v>
       </c>
       <c r="U22" t="n">
         <v>62.50779300617376</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>37.0852260702783</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.762064166145</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2542234760137</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6387607162939</v>
+        <v>1.107084204820991</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>8.377054528182214</v>
       </c>
       <c r="W24" t="n">
-        <v>26.45767023852713</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>149.1046672778683</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.0563512223476</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>3.79805439566036</v>
@@ -2536,7 +2536,7 @@
         <v>29.40467455546624</v>
       </c>
       <c r="W25" t="n">
-        <v>62.56090037594262</v>
+        <v>258.6172515982902</v>
       </c>
       <c r="X25" t="n">
         <v>2.608683420836343</v>
@@ -2561,19 +2561,19 @@
         <v>214.340184030953</v>
       </c>
       <c r="E26" t="n">
-        <v>240.853487031642</v>
+        <v>240.8534870316421</v>
       </c>
       <c r="F26" t="n">
-        <v>265.0293147568954</v>
+        <v>265.0293147568955</v>
       </c>
       <c r="G26" t="n">
-        <v>272.067031903991</v>
+        <v>272.0670319039911</v>
       </c>
       <c r="H26" t="n">
         <v>190.5212885753062</v>
       </c>
       <c r="I26" t="n">
-        <v>42.78967806024065</v>
+        <v>42.78967806024067</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.67832991236195</v>
+        <v>51.67832991236198</v>
       </c>
       <c r="T26" t="n">
-        <v>78.41032711498357</v>
+        <v>78.4103271149836</v>
       </c>
       <c r="U26" t="n">
-        <v>109.1713600708034</v>
+        <v>109.1713600708035</v>
       </c>
       <c r="V26" t="n">
-        <v>186.2686727988739</v>
+        <v>186.268672798874</v>
       </c>
       <c r="W26" t="n">
         <v>208.2655682769092</v>
@@ -2643,16 +2643,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>115.3763324135285</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7432816712511</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7589952089385</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.86565315730873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.3148555314919</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>163.762064166145</v>
       </c>
       <c r="T27" t="n">
-        <v>54.98967475236826</v>
+        <v>140.0134632040468</v>
       </c>
       <c r="U27" t="n">
-        <v>82.37421199264848</v>
+        <v>224.6387607162939</v>
       </c>
       <c r="V27" t="n">
-        <v>89.6441823160097</v>
+        <v>89.64418231600973</v>
       </c>
       <c r="W27" t="n">
-        <v>107.7247980263546</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.81914276703839</v>
+        <v>37.81914276703841</v>
       </c>
       <c r="C28" t="n">
-        <v>25.07200420755692</v>
+        <v>25.07200420755694</v>
       </c>
       <c r="D28" t="n">
-        <v>6.74101779087394</v>
+        <v>6.741017790873968</v>
       </c>
       <c r="E28" t="n">
-        <v>4.710075449553756</v>
+        <v>4.710075449553784</v>
       </c>
       <c r="F28" t="n">
-        <v>3.894472686159077</v>
+        <v>3.894472686159105</v>
       </c>
       <c r="G28" t="n">
-        <v>25.39035752714098</v>
+        <v>25.39035752714101</v>
       </c>
       <c r="H28" t="n">
-        <v>17.28298091821151</v>
+        <v>17.28298091821154</v>
       </c>
       <c r="I28" t="n">
-        <v>4.436449862884825</v>
+        <v>4.436449862884854</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.5744122922736</v>
+        <v>20.57441229227363</v>
       </c>
       <c r="S28" t="n">
-        <v>76.00297918087135</v>
+        <v>76.00297918087138</v>
       </c>
       <c r="T28" t="n">
-        <v>85.06518218348785</v>
+        <v>85.06518218348788</v>
       </c>
       <c r="U28" t="n">
-        <v>143.7749207940012</v>
+        <v>143.7749207940013</v>
       </c>
       <c r="V28" t="n">
-        <v>110.6718023432937</v>
+        <v>110.6718023432938</v>
       </c>
       <c r="W28" t="n">
         <v>143.8280281637701</v>
       </c>
       <c r="X28" t="n">
-        <v>83.87581120866383</v>
+        <v>83.87581120866386</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.4841251441228</v>
+        <v>76.48412514412283</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>272.0670319039909</v>
       </c>
       <c r="H29" t="n">
-        <v>190.5212885753062</v>
+        <v>190.5212885753061</v>
       </c>
       <c r="I29" t="n">
-        <v>42.78967806024062</v>
+        <v>42.78967806024059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.67832991236192</v>
+        <v>51.6783299123619</v>
       </c>
       <c r="T29" t="n">
-        <v>78.41032711498355</v>
+        <v>78.41032711498352</v>
       </c>
       <c r="U29" t="n">
         <v>109.1713600708034</v>
@@ -2858,7 +2858,7 @@
         <v>228.5970504075239</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.4225230275904</v>
+        <v>244.4225230275903</v>
       </c>
     </row>
     <row r="30">
@@ -2874,22 +2874,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>88.8716633026787</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>13.76888498352838</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7432816712511</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7589952089385</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.86565315730873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>163.762064166145</v>
+        <v>21.49751544249954</v>
       </c>
       <c r="T30" t="n">
         <v>197.2542234760137</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6387607162939</v>
+        <v>82.37421199264843</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>89.64418231600965</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>156.9097538878261</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.81914276703836</v>
+        <v>37.81914276703833</v>
       </c>
       <c r="C31" t="n">
-        <v>25.07200420755689</v>
+        <v>25.07200420755686</v>
       </c>
       <c r="D31" t="n">
-        <v>6.741017790873912</v>
+        <v>6.741017790873883</v>
       </c>
       <c r="E31" t="n">
-        <v>4.710075449553727</v>
+        <v>4.710075449553699</v>
       </c>
       <c r="F31" t="n">
-        <v>3.894472686159048</v>
+        <v>3.89447268615902</v>
       </c>
       <c r="G31" t="n">
-        <v>25.39035752714095</v>
+        <v>25.39035752714092</v>
       </c>
       <c r="H31" t="n">
-        <v>17.28298091821148</v>
+        <v>17.28298091821145</v>
       </c>
       <c r="I31" t="n">
-        <v>4.436449862884797</v>
+        <v>4.436449862884769</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.57441229227357</v>
+        <v>20.57441229227355</v>
       </c>
       <c r="S31" t="n">
-        <v>76.00297918087132</v>
+        <v>76.00297918087129</v>
       </c>
       <c r="T31" t="n">
-        <v>85.06518218348782</v>
+        <v>85.06518218348779</v>
       </c>
       <c r="U31" t="n">
         <v>143.7749207940012</v>
@@ -3013,10 +3013,10 @@
         <v>143.8280281637701</v>
       </c>
       <c r="X31" t="n">
-        <v>83.87581120866381</v>
+        <v>83.87581120866378</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.48412514412277</v>
+        <v>76.48412514412274</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>239.564792908064</v>
+        <v>239.5647929080641</v>
       </c>
       <c r="C32" t="n">
-        <v>222.8334785956116</v>
+        <v>222.8334785956117</v>
       </c>
       <c r="D32" t="n">
-        <v>212.4531156712674</v>
+        <v>212.4531156712675</v>
       </c>
       <c r="E32" t="n">
         <v>238.9664186719565</v>
@@ -3044,10 +3044,10 @@
         <v>270.1799635443055</v>
       </c>
       <c r="H32" t="n">
-        <v>188.6342202156206</v>
+        <v>188.6342202156207</v>
       </c>
       <c r="I32" t="n">
-        <v>40.90260970055508</v>
+        <v>40.90260970055513</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.79126155267639</v>
+        <v>49.79126155267645</v>
       </c>
       <c r="T32" t="n">
-        <v>76.523258755298</v>
+        <v>76.52325875529806</v>
       </c>
       <c r="U32" t="n">
         <v>107.2842917111179</v>
@@ -3092,10 +3092,10 @@
         <v>206.3784999172236</v>
       </c>
       <c r="X32" t="n">
-        <v>226.7099820478384</v>
+        <v>226.7099820478385</v>
       </c>
       <c r="Y32" t="n">
-        <v>242.5354546679048</v>
+        <v>242.5354546679049</v>
       </c>
     </row>
     <row r="33">
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.3148555314919</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>163.762064166145</v>
       </c>
       <c r="T33" t="n">
-        <v>197.2542234760137</v>
+        <v>141.9005315637326</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6387607162939</v>
+        <v>80.48714363296297</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>117.320799306227</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>60.31001252514727</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.93207440735281</v>
+        <v>35.93207440735287</v>
       </c>
       <c r="C34" t="n">
-        <v>23.18493584787134</v>
+        <v>23.1849358478714</v>
       </c>
       <c r="D34" t="n">
-        <v>4.853949431188369</v>
+        <v>4.853949431188425</v>
       </c>
       <c r="E34" t="n">
-        <v>2.823007089868184</v>
+        <v>2.823007089868241</v>
       </c>
       <c r="F34" t="n">
-        <v>2.007404326473505</v>
+        <v>2.007404326473562</v>
       </c>
       <c r="G34" t="n">
-        <v>23.50328916745541</v>
+        <v>23.50328916745546</v>
       </c>
       <c r="H34" t="n">
-        <v>15.39591255852594</v>
+        <v>15.39591255852599</v>
       </c>
       <c r="I34" t="n">
-        <v>2.549381503199254</v>
+        <v>2.549381503199311</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.68734393258803</v>
+        <v>18.68734393258809</v>
       </c>
       <c r="S34" t="n">
-        <v>74.11591082118578</v>
+        <v>74.11591082118584</v>
       </c>
       <c r="T34" t="n">
-        <v>83.17811382380228</v>
+        <v>83.17811382380233</v>
       </c>
       <c r="U34" t="n">
         <v>141.8878524343157</v>
@@ -3247,13 +3247,13 @@
         <v>108.7847339836082</v>
       </c>
       <c r="W34" t="n">
-        <v>141.9409598040845</v>
+        <v>141.9409598040846</v>
       </c>
       <c r="X34" t="n">
-        <v>81.98874284897826</v>
+        <v>81.98874284897832</v>
       </c>
       <c r="Y34" t="n">
-        <v>74.59705678443723</v>
+        <v>74.59705678443729</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>189.7735313553877</v>
+        <v>189.7735313553876</v>
       </c>
       <c r="C35" t="n">
-        <v>173.0422170429353</v>
+        <v>173.0422170429352</v>
       </c>
       <c r="D35" t="n">
-        <v>162.6618541185911</v>
+        <v>162.6618541185909</v>
       </c>
       <c r="E35" t="n">
-        <v>189.1751571192801</v>
+        <v>189.17515711928</v>
       </c>
       <c r="F35" t="n">
-        <v>213.3509848445335</v>
+        <v>213.3509848445334</v>
       </c>
       <c r="G35" t="n">
-        <v>220.3887019916291</v>
+        <v>220.3887019916289</v>
       </c>
       <c r="H35" t="n">
-        <v>138.8429586629443</v>
+        <v>138.8429586629441</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>26.73199720262167</v>
+        <v>26.73199720262153</v>
       </c>
       <c r="U35" t="n">
-        <v>57.49303015844154</v>
+        <v>57.4930301584414</v>
       </c>
       <c r="V35" t="n">
-        <v>134.590342886512</v>
+        <v>134.5903428865119</v>
       </c>
       <c r="W35" t="n">
-        <v>156.5872383645473</v>
+        <v>156.5872383645471</v>
       </c>
       <c r="X35" t="n">
-        <v>176.9187204951621</v>
+        <v>176.9187204951619</v>
       </c>
       <c r="Y35" t="n">
-        <v>192.7441931152285</v>
+        <v>192.7441931152283</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>25.81609561508449</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>135.7432816712511</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7589952089385</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.86565315730873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>77.3148555314919</v>
       </c>
       <c r="S36" t="n">
-        <v>163.762064166145</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2542234760137</v>
+        <v>3.311344840006212</v>
       </c>
       <c r="U36" t="n">
-        <v>30.69588208028658</v>
+        <v>143.8507875952282</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.32464926850944</v>
+        <v>24.3246492685093</v>
       </c>
       <c r="T37" t="n">
-        <v>33.38685227112595</v>
+        <v>33.3868522711258</v>
       </c>
       <c r="U37" t="n">
-        <v>92.09659088163934</v>
+        <v>92.0965908816392</v>
       </c>
       <c r="V37" t="n">
-        <v>58.99347243093183</v>
+        <v>58.99347243093169</v>
       </c>
       <c r="W37" t="n">
-        <v>92.14969825140821</v>
+        <v>92.14969825140807</v>
       </c>
       <c r="X37" t="n">
-        <v>32.19748129630193</v>
+        <v>32.19748129630179</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.8057952317609</v>
+        <v>24.80579523176075</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>189.7735313553876</v>
+        <v>189.7735313553875</v>
       </c>
       <c r="C38" t="n">
-        <v>173.0422170429352</v>
+        <v>173.0422170429351</v>
       </c>
       <c r="D38" t="n">
-        <v>162.661854118591</v>
+        <v>162.6618541185909</v>
       </c>
       <c r="E38" t="n">
-        <v>189.17515711928</v>
+        <v>189.1751571192799</v>
       </c>
       <c r="F38" t="n">
-        <v>213.3509848445334</v>
+        <v>213.3509848445333</v>
       </c>
       <c r="G38" t="n">
-        <v>220.388701991629</v>
+        <v>220.3887019916289</v>
       </c>
       <c r="H38" t="n">
-        <v>138.8429586629442</v>
+        <v>138.8429586629441</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>26.73199720262158</v>
+        <v>26.73199720262147</v>
       </c>
       <c r="U38" t="n">
-        <v>57.49303015844145</v>
+        <v>57.49303015844134</v>
       </c>
       <c r="V38" t="n">
-        <v>134.5903428865119</v>
+        <v>134.5903428865118</v>
       </c>
       <c r="W38" t="n">
-        <v>156.5872383645472</v>
+        <v>156.5872383645471</v>
       </c>
       <c r="X38" t="n">
-        <v>176.918720495162</v>
+        <v>176.9187204951619</v>
       </c>
       <c r="Y38" t="n">
-        <v>192.7441931152284</v>
+        <v>192.7441931152283</v>
       </c>
     </row>
     <row r="39">
@@ -3594,10 +3594,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7432816712511</v>
+        <v>54.95530855018536</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7589952089385</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>77.3148555314919</v>
       </c>
       <c r="S39" t="n">
-        <v>163.762064166145</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2542234760137</v>
+        <v>3.311344840006155</v>
       </c>
       <c r="U39" t="n">
         <v>224.6387607162939</v>
       </c>
       <c r="V39" t="n">
-        <v>37.96585240364772</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>56.04646811399263</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>46.09547574833927</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.32464926850936</v>
+        <v>24.32464926850924</v>
       </c>
       <c r="T40" t="n">
-        <v>33.38685227112586</v>
+        <v>33.38685227112575</v>
       </c>
       <c r="U40" t="n">
-        <v>92.09659088163926</v>
+        <v>92.09659088163914</v>
       </c>
       <c r="V40" t="n">
-        <v>58.99347243093175</v>
+        <v>58.99347243093163</v>
       </c>
       <c r="W40" t="n">
-        <v>92.14969825140813</v>
+        <v>92.14969825140801</v>
       </c>
       <c r="X40" t="n">
-        <v>32.19748129630185</v>
+        <v>32.19748129630173</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.80579523176081</v>
+        <v>24.8057952317607</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.7735313553876</v>
+        <v>189.7735313553875</v>
       </c>
       <c r="C41" t="n">
-        <v>173.0422170429352</v>
+        <v>173.0422170429351</v>
       </c>
       <c r="D41" t="n">
-        <v>162.661854118591</v>
+        <v>162.6618541185909</v>
       </c>
       <c r="E41" t="n">
         <v>189.17515711928</v>
       </c>
       <c r="F41" t="n">
-        <v>213.3509848445334</v>
+        <v>213.3509848445333</v>
       </c>
       <c r="G41" t="n">
-        <v>220.388701991629</v>
+        <v>220.3887019916289</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8429586629442</v>
+        <v>138.8429586629441</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.73199720262159</v>
+        <v>26.7319972026215</v>
       </c>
       <c r="U41" t="n">
-        <v>57.49303015844145</v>
+        <v>57.49303015844136</v>
       </c>
       <c r="V41" t="n">
-        <v>134.5903428865119</v>
+        <v>134.5903428865118</v>
       </c>
       <c r="W41" t="n">
-        <v>156.5872383645472</v>
+        <v>156.5872383645471</v>
       </c>
       <c r="X41" t="n">
-        <v>176.918720495162</v>
+        <v>176.9187204951619</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.7441931152284</v>
+        <v>192.7441931152283</v>
       </c>
     </row>
     <row r="42">
@@ -3822,22 +3822,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7432816712511</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>16.49786534532304</v>
+        <v>107.7589952089385</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.86565315730873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.31485553149193</v>
+        <v>77.3148555314919</v>
       </c>
       <c r="S42" t="n">
-        <v>163.762064166145</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.2542234760137</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6387607162939</v>
+        <v>66.39866787456978</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.32464926850936</v>
+        <v>24.32464926850927</v>
       </c>
       <c r="T43" t="n">
-        <v>33.38685227112586</v>
+        <v>33.38685227112578</v>
       </c>
       <c r="U43" t="n">
-        <v>92.09659088163926</v>
+        <v>92.09659088163917</v>
       </c>
       <c r="V43" t="n">
-        <v>58.99347243093175</v>
+        <v>58.99347243093166</v>
       </c>
       <c r="W43" t="n">
-        <v>92.14969825140813</v>
+        <v>92.14969825140804</v>
       </c>
       <c r="X43" t="n">
-        <v>32.19748129630185</v>
+        <v>32.19748129630176</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.80579523176081</v>
+        <v>24.80579523176073</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4031,7 @@
         <v>26.73199720262159</v>
       </c>
       <c r="U44" t="n">
-        <v>57.49303015844146</v>
+        <v>57.49303015844145</v>
       </c>
       <c r="V44" t="n">
         <v>134.5903428865119</v>
@@ -4068,7 +4068,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7432816712511</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>107.7589952089385</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.31485553149193</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>9.156457520194239</v>
+        <v>197.2542234760137</v>
       </c>
       <c r="U45" t="n">
         <v>30.69588208028649</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>102.2393912235947</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4805,19 +4805,19 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="K8" t="n">
+        <v>0.5835090784432668</v>
+      </c>
+      <c r="L8" t="n">
         <v>7.804433924178694</v>
-      </c>
-      <c r="L8" t="n">
-        <v>15.02535876991412</v>
       </c>
       <c r="M8" t="n">
         <v>15.02535876991412</v>
       </c>
       <c r="N8" t="n">
-        <v>15.02535876991412</v>
+        <v>22.24628361564955</v>
       </c>
       <c r="O8" t="n">
-        <v>22.24628361564955</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="P8" t="n">
         <v>29.17545392216334</v>
@@ -4829,25 +4829,25 @@
         <v>29.17545392216334</v>
       </c>
       <c r="S8" t="n">
-        <v>21.80791505293017</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="T8" t="n">
-        <v>21.80791505293017</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="U8" t="n">
-        <v>21.80791505293017</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="V8" t="n">
-        <v>21.80791505293017</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="W8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="X8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.951047947676434</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="C9" t="n">
         <v>0.5835090784432668</v>
@@ -4887,46 +4887,46 @@
         <v>7.804433924178694</v>
       </c>
       <c r="L9" t="n">
-        <v>15.02535876991412</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="M9" t="n">
-        <v>22.24628361564955</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="N9" t="n">
-        <v>29.17545392216334</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="O9" t="n">
-        <v>29.17545392216334</v>
+        <v>14.73360423069249</v>
       </c>
       <c r="P9" t="n">
-        <v>29.17545392216334</v>
+        <v>21.95452907642792</v>
       </c>
       <c r="Q9" t="n">
         <v>29.17545392216334</v>
       </c>
       <c r="R9" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="S9" t="n">
         <v>21.80791505293017</v>
       </c>
-      <c r="S9" t="n">
-        <v>14.440376183697</v>
-      </c>
       <c r="T9" t="n">
-        <v>14.440376183697</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="U9" t="n">
-        <v>14.440376183697</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="V9" t="n">
-        <v>14.440376183697</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="W9" t="n">
-        <v>14.440376183697</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="X9" t="n">
-        <v>14.440376183697</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.440376183697</v>
+        <v>0.5835090784432668</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.440376183697</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="C10" t="n">
-        <v>7.951047947676434</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="D10" t="n">
-        <v>7.951047947676434</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="E10" t="n">
-        <v>7.951047947676434</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="F10" t="n">
-        <v>7.951047947676434</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="G10" t="n">
-        <v>7.951047947676434</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="H10" t="n">
-        <v>7.951047947676434</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="I10" t="n">
-        <v>7.951047947676434</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="J10" t="n">
         <v>7.951047947676434</v>
@@ -4981,31 +4981,31 @@
         <v>29.17545392216334</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.17545392216334</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="R10" t="n">
-        <v>29.17545392216334</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="S10" t="n">
-        <v>21.80791505293017</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="T10" t="n">
-        <v>14.440376183697</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="U10" t="n">
-        <v>14.440376183697</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="V10" t="n">
-        <v>14.440376183697</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="W10" t="n">
-        <v>14.440376183697</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="X10" t="n">
-        <v>14.440376183697</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.440376183697</v>
+        <v>22.68612568614277</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>865.7323578386763</v>
+        <v>606.3114521821084</v>
       </c>
       <c r="C11" t="n">
-        <v>618.1403585004246</v>
+        <v>606.3114521821084</v>
       </c>
       <c r="D11" t="n">
-        <v>618.1403585004246</v>
+        <v>606.3114521821084</v>
       </c>
       <c r="E11" t="n">
-        <v>354.2524600951577</v>
+        <v>606.3114521821084</v>
       </c>
       <c r="F11" t="n">
-        <v>354.2524600951577</v>
+        <v>606.3114521821084</v>
       </c>
       <c r="G11" t="n">
-        <v>247.0712756736475</v>
+        <v>310.8947205724485</v>
       </c>
       <c r="H11" t="n">
-        <v>34.02398176973008</v>
+        <v>97.84742666853099</v>
       </c>
       <c r="I11" t="n">
         <v>34.02398176973008</v>
       </c>
       <c r="J11" t="n">
-        <v>77.33190476606478</v>
+        <v>77.33190476606455</v>
       </c>
       <c r="K11" t="n">
-        <v>264.5158476482695</v>
+        <v>264.5158476482691</v>
       </c>
       <c r="L11" t="n">
-        <v>548.7031588532514</v>
+        <v>548.703158853251</v>
       </c>
       <c r="M11" t="n">
-        <v>880.1285934594772</v>
+        <v>880.1285934594769</v>
       </c>
       <c r="N11" t="n">
         <v>1201.399663099986</v>
@@ -5072,19 +5072,19 @@
         <v>1528.593308883989</v>
       </c>
       <c r="U11" t="n">
-        <v>1397.717659934115</v>
+        <v>1397.717659934114</v>
       </c>
       <c r="V11" t="n">
-        <v>1397.717659934115</v>
+        <v>1188.965937521542</v>
       </c>
       <c r="W11" t="n">
-        <v>1397.717659934115</v>
+        <v>957.9951287675209</v>
       </c>
       <c r="X11" t="n">
-        <v>1397.717659934115</v>
+        <v>873.8044374519696</v>
       </c>
       <c r="Y11" t="n">
-        <v>1130.224674664254</v>
+        <v>606.3114521821084</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>334.7689477644951</v>
+        <v>625.4871892981978</v>
       </c>
       <c r="C12" t="n">
-        <v>285.1158491853762</v>
+        <v>452.734074220015</v>
       </c>
       <c r="D12" t="n">
-        <v>260.6275590433841</v>
+        <v>305.1457675789589</v>
       </c>
       <c r="E12" t="n">
-        <v>226.1180465453028</v>
+        <v>270.6362550808774</v>
       </c>
       <c r="F12" t="n">
-        <v>204.2622730609837</v>
+        <v>248.7804815965582</v>
       </c>
       <c r="G12" t="n">
-        <v>67.14784713042704</v>
+        <v>111.6660556660015</v>
       </c>
       <c r="H12" t="n">
-        <v>34.02398176973008</v>
+        <v>111.6660556660015</v>
       </c>
       <c r="I12" t="n">
         <v>34.02398176973008</v>
       </c>
       <c r="J12" t="n">
-        <v>67.59992919925401</v>
+        <v>34.02398176973008</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5921844868163</v>
+        <v>218.0162370572923</v>
       </c>
       <c r="L12" t="n">
-        <v>559.8420847387406</v>
+        <v>526.2661373092167</v>
       </c>
       <c r="M12" t="n">
-        <v>972.3553731989515</v>
+        <v>938.7794257694276</v>
       </c>
       <c r="N12" t="n">
-        <v>999.3398965394983</v>
+        <v>1359.826200169837</v>
       </c>
       <c r="O12" t="n">
-        <v>1333.15561350299</v>
+        <v>1584.645615000972</v>
       </c>
       <c r="P12" t="n">
         <v>1584.645615000972</v>
@@ -5145,25 +5145,25 @@
         <v>1623.10327481833</v>
       </c>
       <c r="S12" t="n">
-        <v>1457.687048387881</v>
+        <v>1580.787064886945</v>
       </c>
       <c r="T12" t="n">
-        <v>1258.440358008069</v>
+        <v>1504.640391006197</v>
       </c>
       <c r="U12" t="n">
-        <v>1031.532518900701</v>
+        <v>1277.732551898829</v>
       </c>
       <c r="V12" t="n">
-        <v>920.3812919253663</v>
+        <v>1166.581324923494</v>
       </c>
       <c r="W12" t="n">
-        <v>790.9668167577636</v>
+        <v>1037.166849755891</v>
       </c>
       <c r="X12" t="n">
-        <v>584.4399181633411</v>
+        <v>953.7399676605321</v>
       </c>
       <c r="Y12" t="n">
-        <v>378.7114823869915</v>
+        <v>792.5297404197582</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>257.3661271916515</v>
+        <v>266.6462900216359</v>
       </c>
       <c r="C13" t="n">
-        <v>211.4393225480868</v>
+        <v>220.7194853780711</v>
       </c>
       <c r="D13" t="n">
-        <v>193.3088286301447</v>
+        <v>193.3088286301456</v>
       </c>
       <c r="E13" t="n">
-        <v>167.9496287926439</v>
+        <v>167.9496287926446</v>
       </c>
       <c r="F13" t="n">
-        <v>143.4142701302892</v>
+        <v>143.4142701302898</v>
       </c>
       <c r="G13" t="n">
-        <v>97.16589647704367</v>
+        <v>97.1658964770441</v>
       </c>
       <c r="H13" t="n">
-        <v>59.10679212574713</v>
+        <v>59.10679212574738</v>
       </c>
       <c r="I13" t="n">
         <v>34.02398176973008</v>
       </c>
       <c r="J13" t="n">
-        <v>83.14999623572282</v>
+        <v>83.14999623572271</v>
       </c>
       <c r="K13" t="n">
-        <v>216.1668585613785</v>
+        <v>216.1668585613782</v>
       </c>
       <c r="L13" t="n">
-        <v>408.445708497469</v>
+        <v>408.4457084974686</v>
       </c>
       <c r="M13" t="n">
-        <v>615.2111695410325</v>
+        <v>615.2111695410319</v>
       </c>
       <c r="N13" t="n">
-        <v>825.0702670489512</v>
+        <v>825.0702670489503</v>
       </c>
       <c r="O13" t="n">
-        <v>1012.782735852195</v>
+        <v>1012.782735852194</v>
       </c>
       <c r="P13" t="n">
-        <v>1167.593828993883</v>
+        <v>1167.593828993882</v>
       </c>
       <c r="Q13" t="n">
-        <v>1228.736021720613</v>
+        <v>1228.736021720612</v>
       </c>
       <c r="R13" t="n">
-        <v>1187.352239213698</v>
+        <v>1187.352239213697</v>
       </c>
       <c r="S13" t="n">
-        <v>1089.980005304159</v>
+        <v>1089.980005304158</v>
       </c>
       <c r="T13" t="n">
-        <v>983.4540309879371</v>
+        <v>983.4540309879354</v>
       </c>
       <c r="U13" t="n">
-        <v>817.6252903984689</v>
+        <v>817.6252903984671</v>
       </c>
       <c r="V13" t="n">
-        <v>685.2340431935539</v>
+        <v>685.234043193552</v>
       </c>
       <c r="W13" t="n">
-        <v>519.3516587962386</v>
+        <v>519.3516587962365</v>
       </c>
       <c r="X13" t="n">
-        <v>414.027069303071</v>
+        <v>423.3072321330558</v>
       </c>
       <c r="Y13" t="n">
-        <v>316.1688293700458</v>
+        <v>325.4489922000304</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>894.6193785926816</v>
+        <v>1133.225343108536</v>
       </c>
       <c r="C14" t="n">
-        <v>894.6193785926816</v>
+        <v>885.6333437702845</v>
       </c>
       <c r="D14" t="n">
-        <v>894.6193785926816</v>
+        <v>648.5265595071276</v>
       </c>
       <c r="E14" t="n">
-        <v>894.6193785926816</v>
+        <v>648.5265595071276</v>
       </c>
       <c r="F14" t="n">
-        <v>606.3114521821083</v>
+        <v>360.2186330965542</v>
       </c>
       <c r="G14" t="n">
-        <v>310.8947205724484</v>
+        <v>97.84742666853097</v>
       </c>
       <c r="H14" t="n">
-        <v>97.84742666853091</v>
+        <v>97.84742666853097</v>
       </c>
       <c r="I14" t="n">
         <v>34.02398176973008</v>
@@ -5279,7 +5279,7 @@
         <v>77.33190476606478</v>
       </c>
       <c r="K14" t="n">
-        <v>264.5158476482694</v>
+        <v>264.5158476482695</v>
       </c>
       <c r="L14" t="n">
         <v>548.7031588532514</v>
@@ -5309,19 +5309,19 @@
         <v>1528.593308883989</v>
       </c>
       <c r="U14" t="n">
-        <v>1397.717659934115</v>
+        <v>1397.717659934114</v>
       </c>
       <c r="V14" t="n">
-        <v>1397.717659934115</v>
+        <v>1397.717659934114</v>
       </c>
       <c r="W14" t="n">
-        <v>1397.717659934115</v>
+        <v>1397.717659934114</v>
       </c>
       <c r="X14" t="n">
-        <v>1159.111695418259</v>
+        <v>1397.717659934114</v>
       </c>
       <c r="Y14" t="n">
-        <v>1159.111695418259</v>
+        <v>1397.717659934114</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>704.0689972616863</v>
+        <v>670.9451319009903</v>
       </c>
       <c r="C15" t="n">
-        <v>654.4158986825673</v>
+        <v>498.1920168228075</v>
       </c>
       <c r="D15" t="n">
-        <v>506.8275920415112</v>
+        <v>350.6037101817514</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2180630443659</v>
+        <v>192.994181184606</v>
       </c>
       <c r="F15" t="n">
-        <v>204.2622730609827</v>
+        <v>48.03839120122291</v>
       </c>
       <c r="G15" t="n">
-        <v>190.2478636294899</v>
+        <v>34.02398176973008</v>
       </c>
       <c r="H15" t="n">
-        <v>81.4003937214712</v>
+        <v>34.02398176973008</v>
       </c>
       <c r="I15" t="n">
         <v>34.02398176973008</v>
       </c>
       <c r="J15" t="n">
-        <v>67.59992919925401</v>
+        <v>34.02398176973008</v>
       </c>
       <c r="K15" t="n">
-        <v>165.7798336788777</v>
+        <v>218.0162370572923</v>
       </c>
       <c r="L15" t="n">
-        <v>165.7798336788777</v>
+        <v>526.2661373092167</v>
       </c>
       <c r="M15" t="n">
-        <v>578.2931221390886</v>
+        <v>938.7794257694276</v>
       </c>
       <c r="N15" t="n">
-        <v>999.3398965394983</v>
+        <v>1359.826200169837</v>
       </c>
       <c r="O15" t="n">
-        <v>1333.15561350299</v>
+        <v>1693.641917133329</v>
       </c>
       <c r="P15" t="n">
-        <v>1584.645615000972</v>
+        <v>1701.199088486504</v>
       </c>
       <c r="Q15" t="n">
         <v>1701.199088486504</v>
@@ -5394,13 +5394,13 @@
         <v>1289.681341422558</v>
       </c>
       <c r="W15" t="n">
-        <v>1037.166849755891</v>
+        <v>1160.266866254955</v>
       </c>
       <c r="X15" t="n">
-        <v>953.7399676605323</v>
+        <v>1043.7161187989</v>
       </c>
       <c r="Y15" t="n">
-        <v>871.1115483832467</v>
+        <v>837.9876830225508</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>257.36612719165</v>
+        <v>266.6462900216354</v>
       </c>
       <c r="C16" t="n">
-        <v>211.4393225480853</v>
+        <v>220.7194853780705</v>
       </c>
       <c r="D16" t="n">
-        <v>184.0286658001599</v>
+        <v>193.3088286301451</v>
       </c>
       <c r="E16" t="n">
-        <v>167.9496287926443</v>
+        <v>167.9496287926441</v>
       </c>
       <c r="F16" t="n">
-        <v>143.4142701302895</v>
+        <v>143.4142701302894</v>
       </c>
       <c r="G16" t="n">
-        <v>97.1658964770439</v>
+        <v>97.16589647704373</v>
       </c>
       <c r="H16" t="n">
-        <v>59.10679212574726</v>
+        <v>59.10679212574701</v>
       </c>
       <c r="I16" t="n">
         <v>34.02398176973008</v>
       </c>
       <c r="J16" t="n">
-        <v>83.14999623572281</v>
+        <v>83.14999623572257</v>
       </c>
       <c r="K16" t="n">
-        <v>216.1668585613783</v>
+        <v>216.166858561378</v>
       </c>
       <c r="L16" t="n">
-        <v>408.4457084974688</v>
+        <v>408.4457084974684</v>
       </c>
       <c r="M16" t="n">
-        <v>615.2111695410322</v>
+        <v>615.2111695410317</v>
       </c>
       <c r="N16" t="n">
-        <v>825.0702670489507</v>
+        <v>825.0702670489502</v>
       </c>
       <c r="O16" t="n">
-        <v>1012.782735852194</v>
+        <v>1012.782735852193</v>
       </c>
       <c r="P16" t="n">
         <v>1167.593828993882</v>
       </c>
       <c r="Q16" t="n">
-        <v>1228.736021720612</v>
+        <v>1228.736021720611</v>
       </c>
       <c r="R16" t="n">
-        <v>1187.352239213697</v>
+        <v>1196.632402043683</v>
       </c>
       <c r="S16" t="n">
-        <v>1089.980005304158</v>
+        <v>1099.260168134144</v>
       </c>
       <c r="T16" t="n">
-        <v>983.4540309879359</v>
+        <v>992.7341938179218</v>
       </c>
       <c r="U16" t="n">
-        <v>817.6252903984678</v>
+        <v>826.9054532284537</v>
       </c>
       <c r="V16" t="n">
-        <v>685.2340431935527</v>
+        <v>694.5142060235383</v>
       </c>
       <c r="W16" t="n">
-        <v>519.3516587962372</v>
+        <v>528.631821626223</v>
       </c>
       <c r="X16" t="n">
-        <v>414.0270693030698</v>
+        <v>423.3072321330553</v>
       </c>
       <c r="Y16" t="n">
-        <v>316.1688293700445</v>
+        <v>325.4489922000299</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>963.2452812920734</v>
+        <v>963.2452812920737</v>
       </c>
       <c r="C17" t="n">
-        <v>818.3428376885686</v>
+        <v>818.3428376885688</v>
       </c>
       <c r="D17" t="n">
-        <v>683.925609160159</v>
+        <v>683.9256091601592</v>
       </c>
       <c r="E17" t="n">
-        <v>522.7272664896392</v>
+        <v>522.7272664896394</v>
       </c>
       <c r="F17" t="n">
-        <v>337.108895813813</v>
+        <v>337.1088958138132</v>
       </c>
       <c r="G17" t="n">
-        <v>144.3817199389005</v>
+        <v>144.3817199389014</v>
       </c>
       <c r="H17" t="n">
         <v>34.02398176973008</v>
@@ -5513,10 +5513,10 @@
         <v>34.02398176973008</v>
       </c>
       <c r="J17" t="n">
-        <v>77.33190476606472</v>
+        <v>77.33190476606478</v>
       </c>
       <c r="K17" t="n">
-        <v>264.5158476482694</v>
+        <v>264.5158476482695</v>
       </c>
       <c r="L17" t="n">
         <v>548.7031588532514</v>
@@ -5546,19 +5546,19 @@
         <v>1701.199088486504</v>
       </c>
       <c r="U17" t="n">
-        <v>1673.012995271377</v>
+        <v>1673.012995271376</v>
       </c>
       <c r="V17" t="n">
-        <v>1566.950828593552</v>
+        <v>1566.950828593551</v>
       </c>
       <c r="W17" t="n">
-        <v>1438.669575574278</v>
+        <v>1438.669575574277</v>
       </c>
       <c r="X17" t="n">
-        <v>1289.851471918019</v>
+        <v>1289.851471918018</v>
       </c>
       <c r="Y17" t="n">
-        <v>1125.048042382905</v>
+        <v>1125.048042382904</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>330.1318150775644</v>
+        <v>656.9307224694975</v>
       </c>
       <c r="C18" t="n">
-        <v>157.3786999993816</v>
+        <v>484.1776073913147</v>
       </c>
       <c r="D18" t="n">
-        <v>34.02398176973008</v>
+        <v>336.5893007502585</v>
       </c>
       <c r="E18" t="n">
-        <v>34.02398176973008</v>
+        <v>178.9797717531132</v>
       </c>
       <c r="F18" t="n">
         <v>34.02398176973008</v>
@@ -5592,22 +5592,22 @@
         <v>34.02398176973008</v>
       </c>
       <c r="J18" t="n">
-        <v>67.59992919925401</v>
+        <v>34.02398176973008</v>
       </c>
       <c r="K18" t="n">
-        <v>67.59992919925401</v>
+        <v>34.02398176973008</v>
       </c>
       <c r="L18" t="n">
-        <v>375.8498294511784</v>
+        <v>342.2738820216545</v>
       </c>
       <c r="M18" t="n">
-        <v>788.3631179113893</v>
+        <v>754.7871704818654</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.409892311799</v>
+        <v>1175.833944882275</v>
       </c>
       <c r="O18" t="n">
-        <v>1543.225609275291</v>
+        <v>1509.649661845767</v>
       </c>
       <c r="P18" t="n">
         <v>1701.199088486504</v>
@@ -5616,28 +5616,28 @@
         <v>1701.199088486504</v>
       </c>
       <c r="R18" t="n">
-        <v>1623.10327481833</v>
+        <v>1701.199088486504</v>
       </c>
       <c r="S18" t="n">
-        <v>1623.10327481833</v>
+        <v>1701.199088486504</v>
       </c>
       <c r="T18" t="n">
-        <v>1623.10327481833</v>
+        <v>1701.199088486504</v>
       </c>
       <c r="U18" t="n">
-        <v>1396.195435710963</v>
+        <v>1700.080821612947</v>
       </c>
       <c r="V18" t="n">
-        <v>1161.944192236564</v>
+        <v>1488.743099628497</v>
       </c>
       <c r="W18" t="n">
-        <v>909.4297005698969</v>
+        <v>1236.22860796183</v>
       </c>
       <c r="X18" t="n">
-        <v>702.9028019754744</v>
+        <v>1029.701709367407</v>
       </c>
       <c r="Y18" t="n">
-        <v>497.1743661991248</v>
+        <v>823.9732735910579</v>
       </c>
     </row>
     <row r="19">
@@ -5692,10 +5692,10 @@
         <v>394.5658575034947</v>
       </c>
       <c r="Q19" t="n">
-        <v>333.8494679065118</v>
+        <v>394.5658575034947</v>
       </c>
       <c r="R19" t="n">
-        <v>333.8494679065118</v>
+        <v>394.5658575034947</v>
       </c>
       <c r="S19" t="n">
         <v>196.5291390970829</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>963.2452812920742</v>
+        <v>963.245281292074</v>
       </c>
       <c r="C20" t="n">
         <v>818.3428376885693</v>
       </c>
       <c r="D20" t="n">
-        <v>683.9256091601596</v>
+        <v>683.9256091601591</v>
       </c>
       <c r="E20" t="n">
-        <v>522.7272664896399</v>
+        <v>522.7272664896393</v>
       </c>
       <c r="F20" t="n">
         <v>337.1088958138131</v>
@@ -5750,16 +5750,16 @@
         <v>34.02398176973008</v>
       </c>
       <c r="J20" t="n">
-        <v>77.33190476606489</v>
+        <v>77.33190476606467</v>
       </c>
       <c r="K20" t="n">
-        <v>264.5158476482696</v>
+        <v>264.5158476482694</v>
       </c>
       <c r="L20" t="n">
-        <v>548.7031588532515</v>
+        <v>548.7031588532512</v>
       </c>
       <c r="M20" t="n">
-        <v>880.1285934594773</v>
+        <v>880.1285934594771</v>
       </c>
       <c r="N20" t="n">
         <v>1201.399663099986</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>538.2224306355862</v>
+        <v>634.0172009795486</v>
       </c>
       <c r="C21" t="n">
-        <v>365.4693155574034</v>
+        <v>461.2640859013658</v>
       </c>
       <c r="D21" t="n">
-        <v>365.4693155574034</v>
+        <v>313.6757792603097</v>
       </c>
       <c r="E21" t="n">
-        <v>365.4693155574034</v>
+        <v>156.0662502631644</v>
       </c>
       <c r="F21" t="n">
-        <v>220.5135255740202</v>
+        <v>34.02398176973008</v>
       </c>
       <c r="G21" t="n">
-        <v>220.5135255740202</v>
+        <v>34.02398176973008</v>
       </c>
       <c r="H21" t="n">
-        <v>111.6660556660015</v>
+        <v>34.02398176973008</v>
       </c>
       <c r="I21" t="n">
         <v>34.02398176973008</v>
       </c>
       <c r="J21" t="n">
-        <v>67.59992919925401</v>
+        <v>34.02398176973008</v>
       </c>
       <c r="K21" t="n">
-        <v>251.5921844868163</v>
+        <v>218.0162370572923</v>
       </c>
       <c r="L21" t="n">
-        <v>417.2698351768594</v>
+        <v>526.2661373092167</v>
       </c>
       <c r="M21" t="n">
-        <v>829.7831236370703</v>
+        <v>938.7794257694276</v>
       </c>
       <c r="N21" t="n">
-        <v>1250.82989803748</v>
+        <v>1115.89337002503</v>
       </c>
       <c r="O21" t="n">
-        <v>1584.645615000972</v>
+        <v>1449.709086988522</v>
       </c>
       <c r="P21" t="n">
-        <v>1584.645615000972</v>
+        <v>1701.199088486504</v>
       </c>
       <c r="Q21" t="n">
         <v>1701.199088486504</v>
       </c>
       <c r="R21" t="n">
-        <v>1623.10327481833</v>
+        <v>1701.199088486504</v>
       </c>
       <c r="S21" t="n">
-        <v>1457.687048387881</v>
+        <v>1701.199088486504</v>
       </c>
       <c r="T21" t="n">
-        <v>1258.440358008069</v>
+        <v>1701.199088486504</v>
       </c>
       <c r="U21" t="n">
-        <v>1257.322091134512</v>
+        <v>1700.080821612947</v>
       </c>
       <c r="V21" t="n">
-        <v>1202.992256673025</v>
+        <v>1465.829578138548</v>
       </c>
       <c r="W21" t="n">
-        <v>950.4777650063583</v>
+        <v>1213.315086471881</v>
       </c>
       <c r="X21" t="n">
-        <v>743.9508664119357</v>
+        <v>1006.788187877459</v>
       </c>
       <c r="Y21" t="n">
-        <v>538.2224306355862</v>
+        <v>801.0597521011091</v>
       </c>
     </row>
     <row r="22">
@@ -5935,7 +5935,7 @@
         <v>394.5658575034947</v>
       </c>
       <c r="S22" t="n">
-        <v>394.5658575034947</v>
+        <v>196.5291390970829</v>
       </c>
       <c r="T22" t="n">
         <v>192.6927205156078</v>
@@ -5969,13 +5969,13 @@
         <v>818.342837688569</v>
       </c>
       <c r="D23" t="n">
-        <v>683.9256091601595</v>
+        <v>683.9256091601594</v>
       </c>
       <c r="E23" t="n">
-        <v>522.7272664896398</v>
+        <v>522.7272664896396</v>
       </c>
       <c r="F23" t="n">
-        <v>337.1088958138135</v>
+        <v>337.1088958138134</v>
       </c>
       <c r="G23" t="n">
         <v>144.3817199389005</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.9307224694975</v>
+        <v>694.39054678291</v>
       </c>
       <c r="C24" t="n">
-        <v>484.1776073913147</v>
+        <v>521.6374317047271</v>
       </c>
       <c r="D24" t="n">
-        <v>336.5893007502585</v>
+        <v>374.0491250636709</v>
       </c>
       <c r="E24" t="n">
-        <v>178.9797717531132</v>
+        <v>216.4395960665256</v>
       </c>
       <c r="F24" t="n">
-        <v>34.02398176973008</v>
+        <v>71.4838060831425</v>
       </c>
       <c r="G24" t="n">
-        <v>34.02398176973008</v>
+        <v>71.4838060831425</v>
       </c>
       <c r="H24" t="n">
         <v>34.02398176973008</v>
@@ -6084,7 +6084,7 @@
         <v>1509.649661845767</v>
       </c>
       <c r="P24" t="n">
-        <v>1584.645615000972</v>
+        <v>1701.199088486504</v>
       </c>
       <c r="Q24" t="n">
         <v>1701.199088486504</v>
@@ -6093,25 +6093,25 @@
         <v>1701.199088486504</v>
       </c>
       <c r="S24" t="n">
-        <v>1701.199088486504</v>
+        <v>1535.782862056054</v>
       </c>
       <c r="T24" t="n">
-        <v>1501.952398106692</v>
+        <v>1535.782862056054</v>
       </c>
       <c r="U24" t="n">
-        <v>1275.044558999325</v>
+        <v>1534.664595182498</v>
       </c>
       <c r="V24" t="n">
-        <v>1040.793315524925</v>
+        <v>1526.202923941909</v>
       </c>
       <c r="W24" t="n">
-        <v>1014.06839609207</v>
+        <v>1273.688432275243</v>
       </c>
       <c r="X24" t="n">
-        <v>807.5414974976472</v>
+        <v>1067.16153368082</v>
       </c>
       <c r="Y24" t="n">
-        <v>656.9307224694975</v>
+        <v>861.4330979044704</v>
       </c>
     </row>
     <row r="25">
@@ -6172,16 +6172,16 @@
         <v>394.5658575034947</v>
       </c>
       <c r="S25" t="n">
-        <v>196.5291390970829</v>
+        <v>394.5658575034947</v>
       </c>
       <c r="T25" t="n">
-        <v>192.6927205156078</v>
+        <v>390.7294389220195</v>
       </c>
       <c r="U25" t="n">
-        <v>129.5535356608869</v>
+        <v>327.5902540672986</v>
       </c>
       <c r="V25" t="n">
-        <v>99.85184419071894</v>
+        <v>297.8885625971307</v>
       </c>
       <c r="W25" t="n">
         <v>36.65901552815063</v>
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1522.662178078605</v>
+        <v>1522.662178078604</v>
       </c>
       <c r="C26" t="n">
-        <v>1295.671726608608</v>
+        <v>1295.671726608607</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.166490213706</v>
+        <v>1079.166490213705</v>
       </c>
       <c r="E26" t="n">
-        <v>835.8801396766937</v>
+        <v>835.8801396766929</v>
       </c>
       <c r="F26" t="n">
-        <v>568.1737611343749</v>
+        <v>568.173761134374</v>
       </c>
       <c r="G26" t="n">
-        <v>293.3585773929699</v>
+        <v>293.3585773929688</v>
       </c>
       <c r="H26" t="n">
-        <v>100.912831357306</v>
+        <v>100.9128313573059</v>
       </c>
       <c r="I26" t="n">
-        <v>57.69093432675991</v>
+        <v>57.69093432675989</v>
       </c>
       <c r="J26" t="n">
-        <v>241.8407605595039</v>
+        <v>241.8407605595035</v>
       </c>
       <c r="K26" t="n">
-        <v>569.8666066781176</v>
+        <v>569.8666066781173</v>
       </c>
       <c r="L26" t="n">
-        <v>994.8958211195082</v>
+        <v>994.8958211195081</v>
       </c>
       <c r="M26" t="n">
         <v>1467.163158962143</v>
@@ -6239,37 +6239,37 @@
         <v>1929.276131839061</v>
       </c>
       <c r="O26" t="n">
-        <v>2327.356844599248</v>
+        <v>2327.356844599247</v>
       </c>
       <c r="P26" t="n">
-        <v>2650.807327166</v>
+        <v>2650.807327166001</v>
       </c>
       <c r="Q26" t="n">
-        <v>2851.601266934804</v>
+        <v>2851.601266934803</v>
       </c>
       <c r="R26" t="n">
-        <v>2884.546716337995</v>
+        <v>2884.546716337994</v>
       </c>
       <c r="S26" t="n">
-        <v>2832.346383093185</v>
+        <v>2832.346383093184</v>
       </c>
       <c r="T26" t="n">
-        <v>2753.14403247199</v>
+        <v>2753.144032471989</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.86993139037</v>
+        <v>2642.869931390369</v>
       </c>
       <c r="V26" t="n">
-        <v>2454.719756846053</v>
+        <v>2454.719756846052</v>
       </c>
       <c r="W26" t="n">
         <v>2244.350495960286</v>
       </c>
       <c r="X26" t="n">
-        <v>2013.444384437535</v>
+        <v>2013.444384437534</v>
       </c>
       <c r="Y26" t="n">
-        <v>1766.552947035928</v>
+        <v>1766.552947035927</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>975.7876046906459</v>
+        <v>680.5976750265273</v>
       </c>
       <c r="C27" t="n">
-        <v>803.0344896124632</v>
+        <v>507.8445599483445</v>
       </c>
       <c r="D27" t="n">
-        <v>655.4461829714071</v>
+        <v>360.2562533072884</v>
       </c>
       <c r="E27" t="n">
-        <v>497.8366539742618</v>
+        <v>202.646724310143</v>
       </c>
       <c r="F27" t="n">
-        <v>381.2949040616068</v>
+        <v>57.69093432675989</v>
       </c>
       <c r="G27" t="n">
-        <v>244.1804781310501</v>
+        <v>57.69093432675989</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3330082230314</v>
+        <v>57.69093432675989</v>
       </c>
       <c r="I27" t="n">
-        <v>57.69093432675991</v>
+        <v>57.69093432675989</v>
       </c>
       <c r="J27" t="n">
-        <v>91.26688175628385</v>
+        <v>91.26688175628382</v>
       </c>
       <c r="K27" t="n">
         <v>275.2591370438461</v>
@@ -6327,28 +6327,28 @@
         <v>2136.711537440573</v>
       </c>
       <c r="R27" t="n">
-        <v>2058.615723772399</v>
+        <v>2136.711537440573</v>
       </c>
       <c r="S27" t="n">
-        <v>1893.199497341949</v>
+        <v>1971.295311010123</v>
       </c>
       <c r="T27" t="n">
-        <v>1837.654371329456</v>
+        <v>1829.867570399975</v>
       </c>
       <c r="U27" t="n">
-        <v>1754.448096589407</v>
+        <v>1602.959731292607</v>
       </c>
       <c r="V27" t="n">
-        <v>1663.898417482327</v>
+        <v>1512.410052185527</v>
       </c>
       <c r="W27" t="n">
-        <v>1555.085490182978</v>
+        <v>1259.89556051886</v>
       </c>
       <c r="X27" t="n">
-        <v>1348.558591588556</v>
+        <v>1053.368661924437</v>
       </c>
       <c r="Y27" t="n">
-        <v>1142.830155812206</v>
+        <v>847.6402261480878</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.1024075008821</v>
+        <v>146.1024075008823</v>
       </c>
       <c r="C28" t="n">
-        <v>120.7771507255721</v>
+        <v>120.7771507255723</v>
       </c>
       <c r="D28" t="n">
-        <v>113.9680418459015</v>
+        <v>113.9680418459016</v>
       </c>
       <c r="E28" t="n">
         <v>109.2103898766553</v>
@@ -6373,61 +6373,61 @@
         <v>105.2765790825552</v>
       </c>
       <c r="G28" t="n">
-        <v>79.62975329756429</v>
+        <v>79.62975329756432</v>
       </c>
       <c r="H28" t="n">
-        <v>62.17219681452236</v>
+        <v>62.17219681452237</v>
       </c>
       <c r="I28" t="n">
-        <v>57.69093432675991</v>
+        <v>57.69093432675989</v>
       </c>
       <c r="J28" t="n">
         <v>127.0085258584291</v>
       </c>
       <c r="K28" t="n">
-        <v>280.2169652497611</v>
+        <v>220.8654553714867</v>
       </c>
       <c r="L28" t="n">
-        <v>351.845489015119</v>
+        <v>433.3358823732536</v>
       </c>
       <c r="M28" t="n">
-        <v>519.451017246084</v>
+        <v>519.4510172460845</v>
       </c>
       <c r="N28" t="n">
-        <v>608.65978858327</v>
+        <v>608.6597885832705</v>
       </c>
       <c r="O28" t="n">
-        <v>675.7219312157807</v>
+        <v>675.7219312157813</v>
       </c>
       <c r="P28" t="n">
-        <v>850.7246014231457</v>
+        <v>850.7246014231462</v>
       </c>
       <c r="Q28" t="n">
-        <v>932.0583712155518</v>
+        <v>932.0583712155523</v>
       </c>
       <c r="R28" t="n">
-        <v>911.2761365768916</v>
+        <v>911.276136576892</v>
       </c>
       <c r="S28" t="n">
-        <v>834.5054505356075</v>
+        <v>834.5054505356078</v>
       </c>
       <c r="T28" t="n">
-        <v>748.5810240876399</v>
+        <v>748.5810240876402</v>
       </c>
       <c r="U28" t="n">
-        <v>603.3538313664264</v>
+        <v>603.3538313664268</v>
       </c>
       <c r="V28" t="n">
-        <v>491.5641320297661</v>
+        <v>491.5641320297664</v>
       </c>
       <c r="W28" t="n">
-        <v>346.2832955007054</v>
+        <v>346.2832955007057</v>
       </c>
       <c r="X28" t="n">
-        <v>261.5602538757924</v>
+        <v>261.5602538757927</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.3035618110219</v>
+        <v>184.3035618110221</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1522.662178078604</v>
       </c>
       <c r="C29" t="n">
-        <v>1295.671726608606</v>
+        <v>1295.671726608607</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.166490213704</v>
+        <v>1079.166490213705</v>
       </c>
       <c r="E29" t="n">
-        <v>835.8801396766924</v>
+        <v>835.8801396766926</v>
       </c>
       <c r="F29" t="n">
-        <v>568.1737611343738</v>
+        <v>568.173761134374</v>
       </c>
       <c r="G29" t="n">
-        <v>293.3585773929688</v>
+        <v>293.358577392969</v>
       </c>
       <c r="H29" t="n">
         <v>100.9128313573059</v>
@@ -6461,22 +6461,22 @@
         <v>57.69093432675987</v>
       </c>
       <c r="J29" t="n">
-        <v>241.8407605594995</v>
+        <v>241.8407605595002</v>
       </c>
       <c r="K29" t="n">
-        <v>569.8666066781134</v>
+        <v>569.8666066781138</v>
       </c>
       <c r="L29" t="n">
-        <v>994.8958211195047</v>
+        <v>994.8958211195048</v>
       </c>
       <c r="M29" t="n">
         <v>1467.16315896214</v>
       </c>
       <c r="N29" t="n">
-        <v>1929.276131839057</v>
+        <v>1929.276131839058</v>
       </c>
       <c r="O29" t="n">
-        <v>2327.356844599244</v>
+        <v>2327.356844599245</v>
       </c>
       <c r="P29" t="n">
         <v>2650.807327165998</v>
@@ -6485,7 +6485,7 @@
         <v>2851.601266934802</v>
       </c>
       <c r="R29" t="n">
-        <v>2884.546716337993</v>
+        <v>2884.546716337994</v>
       </c>
       <c r="S29" t="n">
         <v>2832.346383093183</v>
@@ -6494,13 +6494,13 @@
         <v>2753.144032471988</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.869931390368</v>
+        <v>2642.869931390369</v>
       </c>
       <c r="V29" t="n">
-        <v>2454.719756846051</v>
+        <v>2454.719756846052</v>
       </c>
       <c r="W29" t="n">
-        <v>2244.350495960284</v>
+        <v>2244.350495960285</v>
       </c>
       <c r="X29" t="n">
         <v>2013.444384437533</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>479.0771608895451</v>
+        <v>1004.201644761374</v>
       </c>
       <c r="C30" t="n">
-        <v>306.3240458113623</v>
+        <v>831.4485296831913</v>
       </c>
       <c r="D30" t="n">
-        <v>216.5546889399697</v>
+        <v>683.8602230421351</v>
       </c>
       <c r="E30" t="n">
-        <v>202.646724310143</v>
+        <v>526.2506940449898</v>
       </c>
       <c r="F30" t="n">
-        <v>57.69093432675987</v>
+        <v>381.2949040616066</v>
       </c>
       <c r="G30" t="n">
-        <v>57.69093432675987</v>
+        <v>244.18047813105</v>
       </c>
       <c r="H30" t="n">
-        <v>57.69093432675987</v>
+        <v>135.3330082230313</v>
       </c>
       <c r="I30" t="n">
         <v>57.69093432675987</v>
       </c>
       <c r="J30" t="n">
-        <v>91.26688175628379</v>
+        <v>91.26688175628381</v>
       </c>
       <c r="K30" t="n">
         <v>275.2591370438461</v>
@@ -6567,25 +6567,25 @@
         <v>2136.711537440573</v>
       </c>
       <c r="S30" t="n">
-        <v>1971.295311010123</v>
+        <v>2114.996875377441</v>
       </c>
       <c r="T30" t="n">
-        <v>1772.048620630311</v>
+        <v>1915.75018499763</v>
       </c>
       <c r="U30" t="n">
-        <v>1545.140781522944</v>
+        <v>1832.543910257581</v>
       </c>
       <c r="V30" t="n">
-        <v>1310.889538048544</v>
+        <v>1741.9942311505</v>
       </c>
       <c r="W30" t="n">
-        <v>1058.375046381878</v>
+        <v>1583.499530253706</v>
       </c>
       <c r="X30" t="n">
-        <v>851.8481477874551</v>
+        <v>1376.972631659284</v>
       </c>
       <c r="Y30" t="n">
-        <v>646.1197120111055</v>
+        <v>1171.244195882934</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.1024075008819</v>
+        <v>146.1024075008817</v>
       </c>
       <c r="C31" t="n">
-        <v>120.7771507255719</v>
+        <v>120.7771507255717</v>
       </c>
       <c r="D31" t="n">
-        <v>113.9680418459013</v>
+        <v>113.9680418459012</v>
       </c>
       <c r="E31" t="n">
-        <v>109.2103898766551</v>
+        <v>109.210389876655</v>
       </c>
       <c r="F31" t="n">
         <v>105.276579082555</v>
       </c>
       <c r="G31" t="n">
-        <v>79.62975329756418</v>
+        <v>79.62975329756414</v>
       </c>
       <c r="H31" t="n">
-        <v>62.17219681452229</v>
+        <v>62.17219681452227</v>
       </c>
       <c r="I31" t="n">
         <v>57.69093432675987</v>
       </c>
       <c r="J31" t="n">
-        <v>57.69093432675987</v>
+        <v>127.0085258584291</v>
       </c>
       <c r="K31" t="n">
-        <v>70.05747048168288</v>
+        <v>280.2169652497612</v>
       </c>
       <c r="L31" t="n">
-        <v>282.5278974834498</v>
+        <v>351.8454890151191</v>
       </c>
       <c r="M31" t="n">
-        <v>509.4849355926897</v>
+        <v>437.96062388795</v>
       </c>
       <c r="N31" t="n">
-        <v>739.5356101662846</v>
+        <v>527.169395225136</v>
       </c>
       <c r="O31" t="n">
-        <v>816.5638344521892</v>
+        <v>735.0734410940557</v>
       </c>
       <c r="P31" t="n">
-        <v>850.7246014231453</v>
+        <v>850.7246014231447</v>
       </c>
       <c r="Q31" t="n">
-        <v>932.0583712155513</v>
+        <v>932.0583712155508</v>
       </c>
       <c r="R31" t="n">
-        <v>911.2761365768912</v>
+        <v>911.2761365768906</v>
       </c>
       <c r="S31" t="n">
-        <v>834.505450535607</v>
+        <v>834.5054505356065</v>
       </c>
       <c r="T31" t="n">
-        <v>748.5810240876394</v>
+        <v>748.5810240876391</v>
       </c>
       <c r="U31" t="n">
-        <v>603.3538313664261</v>
+        <v>603.3538313664258</v>
       </c>
       <c r="V31" t="n">
-        <v>491.5641320297657</v>
+        <v>491.5641320297655</v>
       </c>
       <c r="W31" t="n">
-        <v>346.283295500705</v>
+        <v>346.2832955007048</v>
       </c>
       <c r="X31" t="n">
-        <v>261.5602538757921</v>
+        <v>261.5602538757919</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.3035618110216</v>
+        <v>184.3035618110214</v>
       </c>
     </row>
     <row r="32">
@@ -6683,40 +6683,40 @@
         <v>1069.052332854021</v>
       </c>
       <c r="E32" t="n">
-        <v>827.6721119732568</v>
+        <v>827.6721119732565</v>
       </c>
       <c r="F32" t="n">
-        <v>561.8718630871863</v>
+        <v>561.8718630871858</v>
       </c>
       <c r="G32" t="n">
         <v>288.9628090020294</v>
       </c>
       <c r="H32" t="n">
-        <v>98.42319262261466</v>
+        <v>98.42319262261472</v>
       </c>
       <c r="I32" t="n">
-        <v>57.10742524831659</v>
+        <v>57.1074252483166</v>
       </c>
       <c r="J32" t="n">
         <v>243.1254491571489</v>
       </c>
       <c r="K32" t="n">
-        <v>573.0194929518512</v>
+        <v>573.0194929518511</v>
       </c>
       <c r="L32" t="n">
-        <v>999.9169050693308</v>
+        <v>999.9169050693306</v>
       </c>
       <c r="M32" t="n">
         <v>1474.052440588054</v>
       </c>
       <c r="N32" t="n">
-        <v>1892.627887212539</v>
+        <v>1938.033611141061</v>
       </c>
       <c r="O32" t="n">
-        <v>2292.576797648815</v>
+        <v>2337.982521577336</v>
       </c>
       <c r="P32" t="n">
-        <v>2617.895477891657</v>
+        <v>2663.301201820178</v>
       </c>
       <c r="Q32" t="n">
         <v>2820.55761533655</v>
@@ -6734,7 +6734,7 @@
         <v>2619.412866436949</v>
       </c>
       <c r="V32" t="n">
-        <v>2433.16882154888</v>
+        <v>2433.168821548879</v>
       </c>
       <c r="W32" t="n">
         <v>2224.705690319361</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>680.0141659480839</v>
+        <v>680.014165948084</v>
       </c>
       <c r="C33" t="n">
         <v>507.2610508699012</v>
       </c>
       <c r="D33" t="n">
-        <v>359.672744228845</v>
+        <v>359.6727442288451</v>
       </c>
       <c r="E33" t="n">
-        <v>202.0632152316997</v>
+        <v>202.0632152316998</v>
       </c>
       <c r="F33" t="n">
-        <v>57.10742524831659</v>
+        <v>57.1074252483166</v>
       </c>
       <c r="G33" t="n">
-        <v>57.10742524831659</v>
+        <v>57.1074252483166</v>
       </c>
       <c r="H33" t="n">
-        <v>57.10742524831659</v>
+        <v>57.1074252483166</v>
       </c>
       <c r="I33" t="n">
-        <v>57.10742524831659</v>
+        <v>57.1074252483166</v>
       </c>
       <c r="J33" t="n">
         <v>90.68337267784054</v>
@@ -6801,28 +6801,28 @@
         <v>2136.128028362129</v>
       </c>
       <c r="R33" t="n">
-        <v>2058.032214693956</v>
+        <v>2136.128028362129</v>
       </c>
       <c r="S33" t="n">
-        <v>1892.615988263506</v>
+        <v>1970.71180193168</v>
       </c>
       <c r="T33" t="n">
-        <v>1693.369297883694</v>
+        <v>1827.377931665283</v>
       </c>
       <c r="U33" t="n">
-        <v>1466.461458776327</v>
+        <v>1746.077786581482</v>
       </c>
       <c r="V33" t="n">
-        <v>1232.210215301928</v>
+        <v>1511.826543107083</v>
       </c>
       <c r="W33" t="n">
-        <v>1113.70435741685</v>
+        <v>1259.312051440416</v>
       </c>
       <c r="X33" t="n">
         <v>1052.785152845994</v>
       </c>
       <c r="Y33" t="n">
-        <v>847.0567170696444</v>
+        <v>847.0567170696445</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.1759908287025</v>
+        <v>132.1759908287029</v>
       </c>
       <c r="C34" t="n">
-        <v>108.7568637096405</v>
+        <v>108.7568637096409</v>
       </c>
       <c r="D34" t="n">
-        <v>103.8538844862179</v>
+        <v>103.8538844862182</v>
       </c>
       <c r="E34" t="n">
-        <v>101.0023621732197</v>
+        <v>101.00236217322</v>
       </c>
       <c r="F34" t="n">
-        <v>98.97468103536771</v>
+        <v>98.97468103536789</v>
       </c>
       <c r="G34" t="n">
-        <v>75.23398490662487</v>
+        <v>75.233984906625</v>
       </c>
       <c r="H34" t="n">
-        <v>59.68255807983099</v>
+        <v>59.68255807983106</v>
       </c>
       <c r="I34" t="n">
-        <v>57.10742524831659</v>
+        <v>57.1074252483166</v>
       </c>
       <c r="J34" t="n">
         <v>128.2932144560745</v>
@@ -6862,46 +6862,46 @@
         <v>140.6597506109975</v>
       </c>
       <c r="L34" t="n">
-        <v>212.2882743763555</v>
+        <v>354.998375288853</v>
       </c>
       <c r="M34" t="n">
-        <v>298.4034092491863</v>
+        <v>484.6330383154954</v>
       </c>
       <c r="N34" t="n">
-        <v>431.1317087401827</v>
+        <v>573.8418096526814</v>
       </c>
       <c r="O34" t="n">
-        <v>640.9039522851912</v>
+        <v>640.9039522851922</v>
       </c>
       <c r="P34" t="n">
-        <v>817.7748201686449</v>
+        <v>817.7748201686459</v>
       </c>
       <c r="Q34" t="n">
-        <v>900.9767876371396</v>
+        <v>900.9767876371407</v>
       </c>
       <c r="R34" t="n">
-        <v>882.1006826547275</v>
+        <v>882.1006826547284</v>
       </c>
       <c r="S34" t="n">
-        <v>807.2361262696913</v>
+        <v>807.2361262696922</v>
       </c>
       <c r="T34" t="n">
-        <v>723.2178294779718</v>
+        <v>723.2178294779727</v>
       </c>
       <c r="U34" t="n">
-        <v>579.8967664130065</v>
+        <v>579.8967664130073</v>
       </c>
       <c r="V34" t="n">
-        <v>470.0131967325942</v>
+        <v>470.0131967325949</v>
       </c>
       <c r="W34" t="n">
-        <v>326.6384898597815</v>
+        <v>326.6384898597822</v>
       </c>
       <c r="X34" t="n">
-        <v>243.8215778911166</v>
+        <v>243.8215778911172</v>
       </c>
       <c r="Y34" t="n">
-        <v>168.4710154825942</v>
+        <v>168.4710154825947</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1150.441821120874</v>
+        <v>1150.441821120872</v>
       </c>
       <c r="C35" t="n">
-        <v>975.6517028956864</v>
+        <v>975.6517028956855</v>
       </c>
       <c r="D35" t="n">
-        <v>811.3467997455944</v>
+        <v>811.3467997455937</v>
       </c>
       <c r="E35" t="n">
-        <v>620.2607824533922</v>
+        <v>620.2607824533916</v>
       </c>
       <c r="F35" t="n">
-        <v>404.7547371558835</v>
+        <v>404.754737155883</v>
       </c>
       <c r="G35" t="n">
-        <v>182.1398866592885</v>
+        <v>182.1398866592883</v>
       </c>
       <c r="H35" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="I35" t="n">
-        <v>50.69423920203572</v>
+        <v>50.6942392020358</v>
       </c>
       <c r="J35" t="n">
-        <v>94.00216219837037</v>
+        <v>94.00216219837046</v>
       </c>
       <c r="K35" t="n">
         <v>281.1861050805751</v>
       </c>
       <c r="L35" t="n">
-        <v>565.3734162855569</v>
+        <v>565.373416285557</v>
       </c>
       <c r="M35" t="n">
-        <v>1081.64974854511</v>
+        <v>896.7988508917829</v>
       </c>
       <c r="N35" t="n">
-        <v>1402.920818185619</v>
+        <v>1218.069920532292</v>
       </c>
       <c r="O35" t="n">
-        <v>1660.159627709397</v>
+        <v>1475.30873005607</v>
       </c>
       <c r="P35" t="n">
-        <v>2034.771656889388</v>
+        <v>1758.661211023309</v>
       </c>
       <c r="Q35" t="n">
-        <v>2094.723693421784</v>
+        <v>2010.616697405351</v>
       </c>
       <c r="R35" t="n">
-        <v>2094.723693421784</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="S35" t="n">
-        <v>2094.723693421784</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="T35" t="n">
-        <v>2067.721676045398</v>
+        <v>2067.721676045395</v>
       </c>
       <c r="U35" t="n">
-        <v>2009.647908208588</v>
+        <v>2009.647908208586</v>
       </c>
       <c r="V35" t="n">
-        <v>1873.698066909081</v>
+        <v>1873.698066909079</v>
       </c>
       <c r="W35" t="n">
-        <v>1715.529139268124</v>
+        <v>1715.529139268122</v>
       </c>
       <c r="X35" t="n">
-        <v>1536.823360990183</v>
+        <v>1536.823360990181</v>
       </c>
       <c r="Y35" t="n">
-        <v>1342.132256833386</v>
+        <v>1342.132256833385</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>721.9379519362717</v>
+        <v>801.9156404987598</v>
       </c>
       <c r="C36" t="n">
-        <v>549.1848368580888</v>
+        <v>629.1625254205769</v>
       </c>
       <c r="D36" t="n">
-        <v>523.1079726004277</v>
+        <v>481.5742187795207</v>
       </c>
       <c r="E36" t="n">
-        <v>365.4984436032825</v>
+        <v>323.9646897823754</v>
       </c>
       <c r="F36" t="n">
-        <v>365.4984436032825</v>
+        <v>179.0088997989923</v>
       </c>
       <c r="G36" t="n">
-        <v>228.3840176727258</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="H36" t="n">
-        <v>119.5365477647071</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="I36" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="J36" t="n">
-        <v>75.4704212979596</v>
+        <v>49.27903773749219</v>
       </c>
       <c r="K36" t="n">
-        <v>259.4626765855219</v>
+        <v>233.2712930250544</v>
       </c>
       <c r="L36" t="n">
-        <v>567.7125768374462</v>
+        <v>541.5211932769788</v>
       </c>
       <c r="M36" t="n">
-        <v>980.2258652976572</v>
+        <v>954.0344817371897</v>
       </c>
       <c r="N36" t="n">
-        <v>1419.055885035243</v>
+        <v>1392.864501474775</v>
       </c>
       <c r="O36" t="n">
-        <v>1752.871601998735</v>
+        <v>1726.680218438267</v>
       </c>
       <c r="P36" t="n">
-        <v>2004.361603496716</v>
+        <v>1978.170219936249</v>
       </c>
       <c r="Q36" t="n">
-        <v>2094.723693421784</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="R36" t="n">
-        <v>2016.62787975361</v>
+        <v>2016.627879753607</v>
       </c>
       <c r="S36" t="n">
-        <v>1851.21165332316</v>
+        <v>2016.627879753607</v>
       </c>
       <c r="T36" t="n">
-        <v>1651.964962943349</v>
+        <v>2013.283086985924</v>
       </c>
       <c r="U36" t="n">
-        <v>1620.95902144811</v>
+        <v>1867.979261132158</v>
       </c>
       <c r="V36" t="n">
-        <v>1386.707777973711</v>
+        <v>1633.728017657759</v>
       </c>
       <c r="W36" t="n">
-        <v>1134.193286307044</v>
+        <v>1381.213525991092</v>
       </c>
       <c r="X36" t="n">
-        <v>927.6663877126213</v>
+        <v>1174.68662739667</v>
       </c>
       <c r="Y36" t="n">
-        <v>721.9379519362717</v>
+        <v>968.9581916203202</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="C37" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="D37" t="n">
-        <v>42.92284018687072</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="E37" t="n">
-        <v>42.92284018687072</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="F37" t="n">
-        <v>42.92284018687072</v>
+        <v>42.92284018686964</v>
       </c>
       <c r="G37" t="n">
-        <v>42.92284018687072</v>
+        <v>42.92284018686964</v>
       </c>
       <c r="H37" t="n">
-        <v>42.92284018687072</v>
+        <v>42.92284018686964</v>
       </c>
       <c r="I37" t="n">
-        <v>42.92284018687072</v>
+        <v>42.92284018686964</v>
       </c>
       <c r="J37" t="n">
-        <v>42.92284018687072</v>
+        <v>42.92284018686964</v>
       </c>
       <c r="K37" t="n">
-        <v>55.28937634179374</v>
+        <v>55.28937634179266</v>
       </c>
       <c r="L37" t="n">
-        <v>126.9179001071517</v>
+        <v>126.9179001071506</v>
       </c>
       <c r="M37" t="n">
-        <v>213.0330349799826</v>
+        <v>213.0330349799815</v>
       </c>
       <c r="N37" t="n">
-        <v>302.2418063171686</v>
+        <v>302.2418063171675</v>
       </c>
       <c r="O37" t="n">
-        <v>369.3039489496794</v>
+        <v>369.3039489496783</v>
       </c>
       <c r="P37" t="n">
-        <v>403.4647159206353</v>
+        <v>403.4647159206343</v>
       </c>
       <c r="Q37" t="n">
-        <v>403.4647159206353</v>
+        <v>403.4647159206343</v>
       </c>
       <c r="R37" t="n">
-        <v>403.4647159206353</v>
+        <v>403.4647159206343</v>
       </c>
       <c r="S37" t="n">
-        <v>378.8943631241611</v>
+        <v>378.8943631241602</v>
       </c>
       <c r="T37" t="n">
-        <v>345.1702699210036</v>
+        <v>345.1702699210028</v>
       </c>
       <c r="U37" t="n">
-        <v>252.1434104446002</v>
+        <v>252.1434104445996</v>
       </c>
       <c r="V37" t="n">
-        <v>192.5540443527499</v>
+        <v>192.5540443527494</v>
       </c>
       <c r="W37" t="n">
-        <v>99.47354106849915</v>
+        <v>99.4735410684988</v>
       </c>
       <c r="X37" t="n">
-        <v>66.95083268839618</v>
+        <v>66.95083268839598</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1150.441821120874</v>
+        <v>1150.441821120872</v>
       </c>
       <c r="C38" t="n">
-        <v>975.6517028956874</v>
+        <v>975.6517028956855</v>
       </c>
       <c r="D38" t="n">
-        <v>811.3467997455955</v>
+        <v>811.3467997455937</v>
       </c>
       <c r="E38" t="n">
-        <v>620.2607824533934</v>
+        <v>620.2607824533916</v>
       </c>
       <c r="F38" t="n">
-        <v>404.7547371558848</v>
+        <v>404.754737155883</v>
       </c>
       <c r="G38" t="n">
-        <v>182.1398866592884</v>
+        <v>182.1398866592882</v>
       </c>
       <c r="H38" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="I38" t="n">
-        <v>41.89447386843568</v>
+        <v>50.69423920203586</v>
       </c>
       <c r="J38" t="n">
-        <v>277.2058467144176</v>
+        <v>194.7460638352644</v>
       </c>
       <c r="K38" t="n">
-        <v>656.3932394462697</v>
+        <v>381.9300067174691</v>
       </c>
       <c r="L38" t="n">
-        <v>940.5805506512515</v>
+        <v>666.117317922451</v>
       </c>
       <c r="M38" t="n">
-        <v>1272.005985257477</v>
+        <v>997.5427525286768</v>
       </c>
       <c r="N38" t="n">
-        <v>1593.277054897986</v>
+        <v>1318.813822169186</v>
       </c>
       <c r="O38" t="n">
-        <v>1850.515864421764</v>
+        <v>1576.052631692964</v>
       </c>
       <c r="P38" t="n">
-        <v>2034.771656889388</v>
+        <v>1950.664660872956</v>
       </c>
       <c r="Q38" t="n">
-        <v>2094.723693421784</v>
+        <v>2010.616697405351</v>
       </c>
       <c r="R38" t="n">
-        <v>2094.723693421784</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="S38" t="n">
-        <v>2094.723693421784</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="T38" t="n">
-        <v>2067.721676045398</v>
+        <v>2067.721676045395</v>
       </c>
       <c r="U38" t="n">
-        <v>2009.647908208589</v>
+        <v>2009.647908208586</v>
       </c>
       <c r="V38" t="n">
-        <v>1873.698066909082</v>
+        <v>1873.698066909079</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.529139268125</v>
+        <v>1715.529139268123</v>
       </c>
       <c r="X38" t="n">
-        <v>1536.823360990184</v>
+        <v>1536.823360990181</v>
       </c>
       <c r="Y38" t="n">
-        <v>1342.132256833387</v>
+        <v>1342.132256833385</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>910.7631104067784</v>
+        <v>720.311627245158</v>
       </c>
       <c r="C39" t="n">
-        <v>738.0099953285956</v>
+        <v>547.5585121669751</v>
       </c>
       <c r="D39" t="n">
-        <v>590.4216886875395</v>
+        <v>399.970205525919</v>
       </c>
       <c r="E39" t="n">
-        <v>432.8121596903942</v>
+        <v>242.3606765287737</v>
       </c>
       <c r="F39" t="n">
-        <v>287.856369707011</v>
+        <v>97.40488654539053</v>
       </c>
       <c r="G39" t="n">
-        <v>150.7419437764544</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="H39" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="I39" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="J39" t="n">
-        <v>75.4704212979596</v>
+        <v>75.47042129795955</v>
       </c>
       <c r="K39" t="n">
-        <v>259.4626765855219</v>
+        <v>259.4626765855218</v>
       </c>
       <c r="L39" t="n">
-        <v>567.7125768374462</v>
+        <v>567.7125768374461</v>
       </c>
       <c r="M39" t="n">
-        <v>980.2258652976572</v>
+        <v>980.225865297657</v>
       </c>
       <c r="N39" t="n">
-        <v>1419.055885035243</v>
+        <v>1392.864501474775</v>
       </c>
       <c r="O39" t="n">
-        <v>1752.871601998735</v>
+        <v>1726.680218438267</v>
       </c>
       <c r="P39" t="n">
-        <v>1978.170219936252</v>
+        <v>1978.170219936249</v>
       </c>
       <c r="Q39" t="n">
-        <v>2094.723693421784</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="R39" t="n">
-        <v>2016.62787975361</v>
+        <v>2016.627879753607</v>
       </c>
       <c r="S39" t="n">
-        <v>1851.21165332316</v>
+        <v>2016.627879753607</v>
       </c>
       <c r="T39" t="n">
-        <v>1651.964962943349</v>
+        <v>2013.283086985924</v>
       </c>
       <c r="U39" t="n">
-        <v>1425.057123835981</v>
+        <v>1786.375247878557</v>
       </c>
       <c r="V39" t="n">
-        <v>1386.707777973711</v>
+        <v>1552.124004404157</v>
       </c>
       <c r="W39" t="n">
-        <v>1330.095183919173</v>
+        <v>1299.609512737491</v>
       </c>
       <c r="X39" t="n">
-        <v>1283.534097304688</v>
+        <v>1093.082614143068</v>
       </c>
       <c r="Y39" t="n">
-        <v>1077.805661528339</v>
+        <v>887.3541783667184</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="C40" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="D40" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="E40" t="n">
-        <v>42.9228401868701</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="F40" t="n">
-        <v>42.9228401868701</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="G40" t="n">
-        <v>42.9228401868701</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="H40" t="n">
-        <v>42.9228401868701</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="I40" t="n">
-        <v>42.9228401868701</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="J40" t="n">
-        <v>42.9228401868701</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="K40" t="n">
-        <v>55.28937634179312</v>
+        <v>54.26101002335864</v>
       </c>
       <c r="L40" t="n">
-        <v>126.9179001071511</v>
+        <v>125.8895337887166</v>
       </c>
       <c r="M40" t="n">
-        <v>213.0330349799819</v>
+        <v>212.0046686615475</v>
       </c>
       <c r="N40" t="n">
-        <v>302.241806317168</v>
+        <v>301.2134399987335</v>
       </c>
       <c r="O40" t="n">
-        <v>369.3039489496787</v>
+        <v>368.2755826312442</v>
       </c>
       <c r="P40" t="n">
-        <v>403.4647159206347</v>
+        <v>402.4363496022002</v>
       </c>
       <c r="Q40" t="n">
-        <v>403.4647159206347</v>
+        <v>402.4363496022002</v>
       </c>
       <c r="R40" t="n">
-        <v>403.4647159206347</v>
+        <v>403.4647159206338</v>
       </c>
       <c r="S40" t="n">
-        <v>378.8943631241606</v>
+        <v>378.8943631241598</v>
       </c>
       <c r="T40" t="n">
-        <v>345.1702699210032</v>
+        <v>345.1702699210025</v>
       </c>
       <c r="U40" t="n">
-        <v>252.1434104445999</v>
+        <v>252.1434104445993</v>
       </c>
       <c r="V40" t="n">
-        <v>192.5540443527496</v>
+        <v>192.5540443527492</v>
       </c>
       <c r="W40" t="n">
-        <v>99.47354106849897</v>
+        <v>99.47354106849869</v>
       </c>
       <c r="X40" t="n">
-        <v>66.95083268839609</v>
+        <v>66.95083268839592</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.89447386843568</v>
+        <v>41.89447386843562</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1150.441821120874</v>
+        <v>1150.441821120872</v>
       </c>
       <c r="C41" t="n">
-        <v>975.6517028956865</v>
+        <v>975.6517028956853</v>
       </c>
       <c r="D41" t="n">
-        <v>811.3467997455946</v>
+        <v>811.3467997455934</v>
       </c>
       <c r="E41" t="n">
-        <v>620.2607824533925</v>
+        <v>620.2607824533916</v>
       </c>
       <c r="F41" t="n">
-        <v>404.754737155884</v>
+        <v>404.7547371558831</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1398866592884</v>
+        <v>182.1398866592883</v>
       </c>
       <c r="H41" t="n">
-        <v>41.89447386843565</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="I41" t="n">
-        <v>48.52645733969666</v>
+        <v>50.69423920203583</v>
       </c>
       <c r="J41" t="n">
-        <v>91.83438033603124</v>
+        <v>194.7460638352646</v>
       </c>
       <c r="K41" t="n">
-        <v>279.0183232182358</v>
+        <v>381.9300067174693</v>
       </c>
       <c r="L41" t="n">
-        <v>755.2090842728649</v>
+        <v>666.1173179224512</v>
       </c>
       <c r="M41" t="n">
-        <v>1273.653198394756</v>
+        <v>997.5427525286771</v>
       </c>
       <c r="N41" t="n">
-        <v>1594.924268035265</v>
+        <v>1318.813822169186</v>
       </c>
       <c r="O41" t="n">
-        <v>1852.163077559042</v>
+        <v>1576.052631692964</v>
       </c>
       <c r="P41" t="n">
-        <v>2034.771656889387</v>
+        <v>1758.661211023309</v>
       </c>
       <c r="Q41" t="n">
-        <v>2094.723693421782</v>
+        <v>2010.616697405351</v>
       </c>
       <c r="R41" t="n">
-        <v>2094.723693421782</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="S41" t="n">
-        <v>2094.723693421782</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="T41" t="n">
-        <v>2067.721676045397</v>
+        <v>2067.721676045395</v>
       </c>
       <c r="U41" t="n">
-        <v>2009.647908208588</v>
+        <v>2009.647908208586</v>
       </c>
       <c r="V41" t="n">
-        <v>1873.698066909081</v>
+        <v>1873.698066909079</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.529139268124</v>
+        <v>1715.529139268123</v>
       </c>
       <c r="X41" t="n">
-        <v>1536.823360990182</v>
+        <v>1536.823360990181</v>
       </c>
       <c r="Y41" t="n">
-        <v>1342.132256833386</v>
+        <v>1342.132256833385</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>526.0360543241417</v>
+        <v>851.2907583724932</v>
       </c>
       <c r="C42" t="n">
-        <v>353.2829392459589</v>
+        <v>678.5376432943103</v>
       </c>
       <c r="D42" t="n">
-        <v>353.2829392459589</v>
+        <v>530.9493366532542</v>
       </c>
       <c r="E42" t="n">
-        <v>195.6734102488136</v>
+        <v>373.3398076561089</v>
       </c>
       <c r="F42" t="n">
-        <v>195.6734102488136</v>
+        <v>228.3840176727258</v>
       </c>
       <c r="G42" t="n">
-        <v>58.5589843182569</v>
+        <v>228.3840176727258</v>
       </c>
       <c r="H42" t="n">
-        <v>41.89447386843565</v>
+        <v>119.5365477647071</v>
       </c>
       <c r="I42" t="n">
-        <v>41.89447386843565</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="J42" t="n">
-        <v>49.27903773749418</v>
+        <v>49.27903773749219</v>
       </c>
       <c r="K42" t="n">
-        <v>233.2712930250564</v>
+        <v>233.2712930250544</v>
       </c>
       <c r="L42" t="n">
-        <v>541.5211932769806</v>
+        <v>541.5211932769788</v>
       </c>
       <c r="M42" t="n">
-        <v>954.0344817371914</v>
+        <v>954.0344817371897</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.864501474777</v>
+        <v>1392.864501474775</v>
       </c>
       <c r="O42" t="n">
-        <v>1726.680218438269</v>
+        <v>1726.680218438267</v>
       </c>
       <c r="P42" t="n">
-        <v>1978.17021993625</v>
+        <v>1978.170219936249</v>
       </c>
       <c r="Q42" t="n">
-        <v>2094.723693421782</v>
+        <v>2094.723693421781</v>
       </c>
       <c r="R42" t="n">
-        <v>2016.627879753609</v>
+        <v>2016.627879753607</v>
       </c>
       <c r="S42" t="n">
-        <v>1851.211653323159</v>
+        <v>2016.627879753607</v>
       </c>
       <c r="T42" t="n">
-        <v>1651.964962943347</v>
+        <v>1817.381189373795</v>
       </c>
       <c r="U42" t="n">
-        <v>1425.05712383598</v>
+        <v>1750.311827884331</v>
       </c>
       <c r="V42" t="n">
-        <v>1190.80588036158</v>
+        <v>1516.060584409932</v>
       </c>
       <c r="W42" t="n">
-        <v>938.2913886949137</v>
+        <v>1263.546092743265</v>
       </c>
       <c r="X42" t="n">
-        <v>731.7644901004912</v>
+        <v>1057.019194148843</v>
       </c>
       <c r="Y42" t="n">
-        <v>526.0360543241417</v>
+        <v>851.2907583724932</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.89447386843565</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="C43" t="n">
-        <v>41.89447386843565</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="D43" t="n">
-        <v>41.89447386843565</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="E43" t="n">
-        <v>41.89447386843565</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="F43" t="n">
-        <v>41.89447386843565</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="G43" t="n">
-        <v>41.89447386843565</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="H43" t="n">
-        <v>41.89447386843565</v>
+        <v>41.89447386843562</v>
       </c>
       <c r="I43" t="n">
-        <v>41.89447386843565</v>
+        <v>42.92284018686947</v>
       </c>
       <c r="J43" t="n">
-        <v>41.89447386843565</v>
+        <v>42.92284018686947</v>
       </c>
       <c r="K43" t="n">
-        <v>54.26101002335863</v>
+        <v>55.28937634179249</v>
       </c>
       <c r="L43" t="n">
-        <v>125.8895337887165</v>
+        <v>126.9179001071504</v>
       </c>
       <c r="M43" t="n">
-        <v>212.0046686615474</v>
+        <v>213.0330349799813</v>
       </c>
       <c r="N43" t="n">
-        <v>302.241806317168</v>
+        <v>302.2418063171673</v>
       </c>
       <c r="O43" t="n">
-        <v>369.3039489496787</v>
+        <v>369.3039489496781</v>
       </c>
       <c r="P43" t="n">
-        <v>403.4647159206347</v>
+        <v>403.4647159206341</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.4647159206347</v>
+        <v>403.4647159206341</v>
       </c>
       <c r="R43" t="n">
-        <v>403.4647159206347</v>
+        <v>403.4647159206341</v>
       </c>
       <c r="S43" t="n">
-        <v>378.8943631241606</v>
+        <v>378.8943631241601</v>
       </c>
       <c r="T43" t="n">
-        <v>345.1702699210032</v>
+        <v>345.1702699210027</v>
       </c>
       <c r="U43" t="n">
-        <v>252.1434104445999</v>
+        <v>252.1434104445995</v>
       </c>
       <c r="V43" t="n">
-        <v>192.5540443527496</v>
+        <v>192.5540443527493</v>
       </c>
       <c r="W43" t="n">
-        <v>99.47354106849895</v>
+        <v>99.47354106849875</v>
       </c>
       <c r="X43" t="n">
-        <v>66.95083268839606</v>
+        <v>66.95083268839595</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.89447386843565</v>
+        <v>41.89447386843562</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.441821120873</v>
+        <v>1150.441821120874</v>
       </c>
       <c r="C44" t="n">
-        <v>975.6517028956861</v>
+        <v>975.6517028956868</v>
       </c>
       <c r="D44" t="n">
-        <v>811.3467997455944</v>
+        <v>811.3467997455948</v>
       </c>
       <c r="E44" t="n">
-        <v>620.2607824533923</v>
+        <v>620.2607824533925</v>
       </c>
       <c r="F44" t="n">
-        <v>404.7547371558837</v>
+        <v>404.754737155884</v>
       </c>
       <c r="G44" t="n">
         <v>182.1398866592884</v>
@@ -7646,25 +7646,25 @@
         <v>50.69423920203575</v>
       </c>
       <c r="J44" t="n">
-        <v>286.0056120480177</v>
+        <v>94.00216219837034</v>
       </c>
       <c r="K44" t="n">
-        <v>473.1895549302222</v>
+        <v>381.9300067174716</v>
       </c>
       <c r="L44" t="n">
-        <v>757.376866135204</v>
+        <v>666.1173179224534</v>
       </c>
       <c r="M44" t="n">
-        <v>1088.80230074143</v>
+        <v>997.5427525286791</v>
       </c>
       <c r="N44" t="n">
-        <v>1410.073370381939</v>
+        <v>1318.813822169188</v>
       </c>
       <c r="O44" t="n">
-        <v>1768.056081542613</v>
+        <v>1576.052631692966</v>
       </c>
       <c r="P44" t="n">
-        <v>1950.664660872957</v>
+        <v>1758.66121102331</v>
       </c>
       <c r="Q44" t="n">
         <v>2010.616697405353</v>
@@ -7688,10 +7688,10 @@
         <v>1715.529139268124</v>
       </c>
       <c r="X44" t="n">
-        <v>1536.823360990182</v>
+        <v>1536.823360990183</v>
       </c>
       <c r="Y44" t="n">
-        <v>1342.132256833386</v>
+        <v>1342.132256833387</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.40518430305</v>
+        <v>851.2907583724932</v>
       </c>
       <c r="C45" t="n">
-        <v>815.6520692248671</v>
+        <v>678.5376432943103</v>
       </c>
       <c r="D45" t="n">
-        <v>668.0637625838109</v>
+        <v>530.9493366532542</v>
       </c>
       <c r="E45" t="n">
-        <v>510.4542335866656</v>
+        <v>373.339807656109</v>
       </c>
       <c r="F45" t="n">
-        <v>365.4984436032825</v>
+        <v>228.3840176727259</v>
       </c>
       <c r="G45" t="n">
         <v>228.3840176727259</v>
@@ -7734,43 +7734,43 @@
         <v>567.712576837446</v>
       </c>
       <c r="M45" t="n">
-        <v>954.0344817371914</v>
+        <v>980.2258652976568</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.864501474777</v>
+        <v>1419.055885035242</v>
       </c>
       <c r="O45" t="n">
-        <v>1726.680218438269</v>
+        <v>1752.871601998734</v>
       </c>
       <c r="P45" t="n">
-        <v>1978.17021993625</v>
+        <v>2004.361603496716</v>
       </c>
       <c r="Q45" t="n">
         <v>2094.723693421782</v>
       </c>
       <c r="R45" t="n">
-        <v>2094.723693421782</v>
+        <v>2016.627879753609</v>
       </c>
       <c r="S45" t="n">
-        <v>2094.723693421782</v>
+        <v>2016.627879753609</v>
       </c>
       <c r="T45" t="n">
-        <v>2085.474746431687</v>
+        <v>1817.381189373797</v>
       </c>
       <c r="U45" t="n">
-        <v>2054.468804936448</v>
+        <v>1786.375247878558</v>
       </c>
       <c r="V45" t="n">
-        <v>1820.217561462049</v>
+        <v>1683.103135531493</v>
       </c>
       <c r="W45" t="n">
-        <v>1567.703069795382</v>
+        <v>1430.588643864826</v>
       </c>
       <c r="X45" t="n">
-        <v>1361.17617120096</v>
+        <v>1224.061745270403</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.447735424611</v>
+        <v>1018.333309494054</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.89447386843565</v>
+        <v>42.92284018687033</v>
       </c>
       <c r="C46" t="n">
-        <v>41.89447386843565</v>
+        <v>42.92284018687033</v>
       </c>
       <c r="D46" t="n">
-        <v>41.89447386843565</v>
+        <v>42.92284018687033</v>
       </c>
       <c r="E46" t="n">
-        <v>41.89447386843565</v>
+        <v>42.92284018687033</v>
       </c>
       <c r="F46" t="n">
         <v>42.92284018687033</v>
@@ -7985,19 +7985,19 @@
         <v>229.8722545957376</v>
       </c>
       <c r="M2" t="n">
-        <v>224.5875773965903</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6777370066756</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O2" t="n">
         <v>224.3457561361446</v>
       </c>
       <c r="P2" t="n">
-        <v>225.4521708613861</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.7480476275877</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8055,25 +8055,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>123.6666859999995</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
         <v>134.395403</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853768</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
         <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>128.0581692812494</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>130.6250472289697</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
         <v>136.482229733871</v>
@@ -8140,19 +8140,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L4" t="n">
-        <v>131.5125593742067</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M4" t="n">
-        <v>135.4526393489143</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4934058536018</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O4" t="n">
-        <v>134.9951249905461</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P4" t="n">
-        <v>134.2848039479183</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q4" t="n">
         <v>67.95667671286152</v>
@@ -8453,22 +8453,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>221.8814682493969</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
         <v>237.1661180762784</v>
       </c>
       <c r="M8" t="n">
-        <v>224.5875773965909</v>
+        <v>231.8814408771318</v>
       </c>
       <c r="N8" t="n">
-        <v>223.6777370066762</v>
+        <v>230.971600487217</v>
       </c>
       <c r="O8" t="n">
-        <v>231.6396196166854</v>
+        <v>231.3449180619161</v>
       </c>
       <c r="P8" t="n">
-        <v>232.4513327871593</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
         <v>216.7480476275882</v>
@@ -8535,22 +8535,22 @@
         <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>142.3843837659182</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>145.8745465545087</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>135.0573312070215</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>146.0305002591048</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>137.9189107095128</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>143.7760932144118</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8766,7 +8766,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>97.21957834036463</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8778,13 +8778,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>82.51051740109507</v>
+        <v>480.5531952393404</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>299.5195371666296</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>77.17097484211875</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -9003,13 +9003,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>97.21957834036463</v>
       </c>
       <c r="K15" t="n">
-        <v>188.3647042628409</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>74.31042350759311</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
@@ -9021,10 +9021,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>84.80448125946667</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>100.749597946766</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9240,7 +9240,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>97.21957834036463</v>
       </c>
       <c r="K18" t="n">
         <v>89.19308357635225</v>
@@ -9258,7 +9258,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>236.7401457625358</v>
+        <v>270.6552441761961</v>
       </c>
       <c r="Q18" t="n">
         <v>100.749597946766</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789569</v>
+        <v>175.8604797789566</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9477,28 +9477,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>97.21957834036463</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>241.661585820768</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>480.5531952393404</v>
+        <v>234.1563971132724</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>77.17097484211874</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>100.749597946766</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9732,10 +9732,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>152.9244628776793</v>
+        <v>270.6552441761961</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>100.749597946766</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,7 +10662,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>104.6787337636541</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10683,7 +10683,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>192.0244362549145</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10911,13 +10911,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>472.0601263269246</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>304.7453363951661</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>104.6787337636561</v>
+        <v>104.6787337636541</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11382,7 +11382,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>457.8773233096309</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
         <v>498.5160693172957</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>192.0244362549139</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.293863480541404</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
-        <v>14.85476540383149</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.8473936573218</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>245.1160793448694</v>
       </c>
       <c r="D11" t="n">
-        <v>234.735716420525</v>
+        <v>234.7357164205252</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.2490194212143</v>
       </c>
       <c r="F11" t="n">
-        <v>285.4248471464675</v>
+        <v>285.4248471464676</v>
       </c>
       <c r="G11" t="n">
-        <v>186.3531917162679</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>63.18521044981271</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.664205188446</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.6611006664812</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.992582797096</v>
+        <v>165.6437983947005</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.187361201683256</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>9.187361201687239</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>245.1160793448694</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.7357164205251</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>261.2490194212142</v>
+        <v>261.2490194212143</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>32.71506992982029</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.9168209648784</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>206.6642051884461</v>
       </c>
       <c r="W14" t="n">
-        <v>228.6611006664813</v>
+        <v>228.6611006664814</v>
       </c>
       <c r="X14" t="n">
-        <v>12.77267792639989</v>
+        <v>248.9925827970962</v>
       </c>
       <c r="Y14" t="n">
         <v>264.8180554171626</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>9.187361201685503</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.187361201687107</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>345166.4605461897</v>
       </c>
       <c r="C2" t="n">
-        <v>345166.4605461897</v>
+        <v>345166.46054619</v>
       </c>
       <c r="D2" t="n">
-        <v>345659.9633492831</v>
+        <v>345659.963349283</v>
       </c>
       <c r="E2" t="n">
-        <v>296632.6473932436</v>
+        <v>296632.6473932433</v>
       </c>
       <c r="F2" t="n">
-        <v>296632.6473932435</v>
+        <v>296632.6473932433</v>
       </c>
       <c r="G2" t="n">
-        <v>345915.7486613487</v>
+        <v>345915.7486613484</v>
       </c>
       <c r="H2" t="n">
-        <v>345915.7486613487</v>
+        <v>345915.7486613485</v>
       </c>
       <c r="I2" t="n">
         <v>345915.7486613487</v>
       </c>
       <c r="J2" t="n">
+        <v>345915.7486613487</v>
+      </c>
+      <c r="K2" t="n">
+        <v>345915.7486613482</v>
+      </c>
+      <c r="L2" t="n">
         <v>345915.7486613485</v>
-      </c>
-      <c r="K2" t="n">
-        <v>345915.7486613485</v>
-      </c>
-      <c r="L2" t="n">
-        <v>345915.7486613484</v>
       </c>
       <c r="M2" t="n">
         <v>345915.7486613484</v>
       </c>
       <c r="N2" t="n">
-        <v>345915.7486613486</v>
+        <v>345915.7486613483</v>
       </c>
       <c r="O2" t="n">
-        <v>345915.7486613485</v>
+        <v>345915.7486613484</v>
       </c>
       <c r="P2" t="n">
         <v>345915.7486613485</v>
@@ -26366,19 +26366,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.836444232594659e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>2265.6928129604</v>
       </c>
       <c r="E3" t="n">
-        <v>326859.2256713051</v>
+        <v>326859.225671305</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81330.12814191973</v>
+        <v>81330.12814191978</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>109885.4625223904</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>82839.78282966817</v>
+        <v>82839.78282966815</v>
       </c>
       <c r="M3" t="n">
-        <v>96612.64950323598</v>
+        <v>96612.64950323594</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>32481.51083699669</v>
+        <v>32481.51083699651</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>406095.7318240815</v>
+        <v>406095.7318240813</v>
       </c>
       <c r="C4" t="n">
         <v>406095.7318240813</v>
@@ -26424,10 +26424,10 @@
         <v>405671.0012143497</v>
       </c>
       <c r="E4" t="n">
-        <v>259576.9015265924</v>
+        <v>259576.9015265922</v>
       </c>
       <c r="F4" t="n">
-        <v>259576.9015265923</v>
+        <v>259576.9015265922</v>
       </c>
       <c r="G4" t="n">
         <v>325503.1638321601</v>
@@ -26439,13 +26439,13 @@
         <v>325503.1638321601</v>
       </c>
       <c r="J4" t="n">
-        <v>322313.1150871245</v>
+        <v>322313.1150871246</v>
       </c>
       <c r="K4" t="n">
         <v>322313.1150871246</v>
       </c>
       <c r="L4" t="n">
-        <v>322274.0483978764</v>
+        <v>322274.0483978763</v>
       </c>
       <c r="M4" t="n">
         <v>321642.3404609807</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.59999999996</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
         <v>33627.6</v>
@@ -26476,7 +26476,7 @@
         <v>34071.06689961688</v>
       </c>
       <c r="E5" t="n">
-        <v>38940.73272429273</v>
+        <v>38940.73272429271</v>
       </c>
       <c r="F5" t="n">
         <v>38940.73272429271</v>
@@ -26491,22 +26491,22 @@
         <v>47487.41090274653</v>
       </c>
       <c r="J5" t="n">
-        <v>58642.24868009432</v>
+        <v>58642.24868009431</v>
       </c>
       <c r="K5" t="n">
-        <v>58642.24868009429</v>
+        <v>58642.2486800943</v>
       </c>
       <c r="L5" t="n">
         <v>58357.42573040782</v>
       </c>
       <c r="M5" t="n">
-        <v>50981.48424917026</v>
+        <v>50981.48424917023</v>
       </c>
       <c r="N5" t="n">
-        <v>50981.48424917027</v>
+        <v>50981.48424917024</v>
       </c>
       <c r="O5" t="n">
-        <v>50981.48424917024</v>
+        <v>50981.48424917023</v>
       </c>
       <c r="P5" t="n">
         <v>50981.48424917024</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-94556.87127789155</v>
+        <v>-94561.27885503952</v>
       </c>
       <c r="C6" t="n">
-        <v>-94556.87127789177</v>
+        <v>-94561.27885503929</v>
       </c>
       <c r="D6" t="n">
-        <v>-96347.79757764385</v>
+        <v>-96349.3021971267</v>
       </c>
       <c r="E6" t="n">
-        <v>-328744.2125289467</v>
+        <v>-329034.1131246414</v>
       </c>
       <c r="F6" t="n">
-        <v>-1884.986857641357</v>
+        <v>-2174.887453336319</v>
       </c>
       <c r="G6" t="n">
-        <v>-108404.9542154776</v>
+        <v>-108404.954215478</v>
       </c>
       <c r="H6" t="n">
-        <v>-27074.82607355788</v>
+        <v>-27074.82607355806</v>
       </c>
       <c r="I6" t="n">
         <v>-27074.82607355794</v>
       </c>
       <c r="J6" t="n">
-        <v>-144925.0776282607</v>
+        <v>-144925.0776282606</v>
       </c>
       <c r="K6" t="n">
-        <v>-35039.61510587038</v>
+        <v>-35039.61510587069</v>
       </c>
       <c r="L6" t="n">
-        <v>-117555.508296604</v>
+        <v>-117555.5082966038</v>
       </c>
       <c r="M6" t="n">
-        <v>-123320.7255520386</v>
+        <v>-123320.7255520384</v>
       </c>
       <c r="N6" t="n">
-        <v>-26708.07604880251</v>
+        <v>-26708.07604880277</v>
       </c>
       <c r="O6" t="n">
-        <v>-59189.5868857992</v>
+        <v>-59189.58688579907</v>
       </c>
       <c r="P6" t="n">
         <v>-26708.07604880248</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="F2" t="n">
         <v>121.8690163340732</v>
@@ -26710,19 +26710,19 @@
         <v>142.2645487236454</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="L2" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="M2" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="N2" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="O2" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="P2" t="n">
         <v>193.9428786360074</v>
@@ -26774,7 +26774,7 @@
         <v>130.1422130783785</v>
       </c>
       <c r="O3" t="n">
-        <v>130.1422130783783</v>
+        <v>130.1422130783785</v>
       </c>
       <c r="P3" t="n">
         <v>130.1422130783783</v>
@@ -26796,37 +26796,37 @@
         <v>7.293863480540836</v>
       </c>
       <c r="E4" t="n">
-        <v>425.299772121626</v>
+        <v>425.2997721216259</v>
       </c>
       <c r="F4" t="n">
-        <v>425.299772121626</v>
+        <v>425.2997721216259</v>
       </c>
       <c r="G4" t="n">
-        <v>425.299772121626</v>
+        <v>425.2997721216259</v>
       </c>
       <c r="H4" t="n">
-        <v>425.299772121626</v>
+        <v>425.2997721216259</v>
       </c>
       <c r="I4" t="n">
-        <v>425.299772121626</v>
+        <v>425.2997721216259</v>
       </c>
       <c r="J4" t="n">
-        <v>721.1366790844988</v>
+        <v>721.1366790844986</v>
       </c>
       <c r="K4" t="n">
-        <v>721.1366790844983</v>
+        <v>721.1366790844984</v>
       </c>
       <c r="L4" t="n">
-        <v>713.8428156039574</v>
+        <v>713.8428156039575</v>
       </c>
       <c r="M4" t="n">
-        <v>523.6809233554459</v>
+        <v>523.6809233554452</v>
       </c>
       <c r="N4" t="n">
-        <v>523.6809233554459</v>
+        <v>523.6809233554452</v>
       </c>
       <c r="O4" t="n">
-        <v>523.6809233554455</v>
+        <v>523.6809233554452</v>
       </c>
       <c r="P4" t="n">
         <v>523.6809233554455</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>101.6626601773997</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.60188854624586</v>
+        <v>40.60188854624566</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>103.5497285370852</v>
       </c>
       <c r="M2" t="n">
-        <v>49.79126155267633</v>
+        <v>49.79126155267653</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>40.60188854624586</v>
+        <v>40.60188854624563</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="E4" t="n">
-        <v>418.0059086410852</v>
+        <v>418.0059086410851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.8369069628723</v>
+        <v>295.8369069628727</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>227.8440163925736</v>
+        <v>227.8440163925728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.60188854624586</v>
+        <v>40.60188854624566</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="M4" t="n">
-        <v>418.0059086410852</v>
+        <v>418.0059086410851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.7164099913956</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
@@ -27400,7 +27400,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345629842</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765467</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -27476,7 +27476,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547223</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109179</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -27515,13 +27515,13 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396557</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>249.9893467500011</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084788</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
         <v>203.671151418586</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.0836914906844</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C4" t="n">
         <v>167.3365529312023</v>
@@ -27561,7 +27561,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783392</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584874</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697829</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
@@ -27600,7 +27600,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X4" t="n">
-        <v>226.1403599323098</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y4" t="n">
         <v>218.7486738677682</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>377.9512521722971</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -27901,7 +27901,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>198.5710882429984</v>
+        <v>200.0997939044413</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -27913,7 +27913,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>343.2362535200137</v>
       </c>
       <c r="X8" t="n">
         <v>370.8615991311694</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.9476906566845</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>163.7317204468602</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>87.40111628055038</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>161.6677504251035</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>191.9580969546083</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>217.3633135866604</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>224.6148675591143</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -28011,7 +28011,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C10" t="n">
-        <v>160.912117977542</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
         <v>149.0055665145194</v>
@@ -28029,10 +28029,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>146.4646833168628</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>81.5449814472381</v>
       </c>
       <c r="K10" t="n">
         <v>7.480546237292515</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>73.33626492218781</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
-        <v>215.0635434808817</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>221.0386025109668</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="C11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="D11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="E11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="F11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="G11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="H11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="I11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>108.9863170032502</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="V11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="W11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="X11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="Y11" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>121.8690163340734</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>121.8690163340734</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>121.8690163340734</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="F12" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>74.96636850184854</v>
+        <v>107.7589952089385</v>
       </c>
       <c r="I12" t="n">
-        <v>76.86565315730873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="W12" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>44.07302645021991</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="C13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="D13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="E13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="F13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="G13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="I13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="J13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="K13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="L13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="M13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="N13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="O13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="P13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="Q13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="R13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="S13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="T13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="V13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="W13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="X13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.8690163340734</v>
+        <v>121.8690163340732</v>
       </c>
     </row>
     <row r="14">
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>121.8690163340732</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28421,10 +28421,10 @@
         <v>121.8690163340732</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7589952089385</v>
       </c>
       <c r="I15" t="n">
-        <v>29.96300532508501</v>
+        <v>76.86565315730873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28466,13 +28466,13 @@
         <v>121.8690163340732</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>121.8690163340732</v>
       </c>
       <c r="X15" t="n">
-        <v>121.8690163340732</v>
+        <v>89.07638962698429</v>
       </c>
       <c r="Y15" t="n">
-        <v>121.8690163340732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28646,13 +28646,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>23.99125252729058</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.7432816712511</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.3148555314919</v>
       </c>
       <c r="S18" t="n">
         <v>163.762064166145</v>
@@ -28697,10 +28697,10 @@
         <v>197.2542234760137</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>223.5316765114729</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>22.68438627504906</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>60.10922570101302</v>
       </c>
       <c r="R19" t="n">
         <v>162.838961015919</v>
       </c>
       <c r="S19" t="n">
-        <v>82.3204023831822</v>
+        <v>22.21117668216917</v>
       </c>
       <c r="T19" t="n">
         <v>223.5316765114729</v>
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>22.68438627504933</v>
       </c>
       <c r="G21" t="n">
         <v>135.7432816712511</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7589952089385</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.86565315730873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,19 +28925,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.3148555314919</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.762064166145</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2542234760137</v>
       </c>
       <c r="U21" t="n">
         <v>223.5316765114729</v>
       </c>
       <c r="V21" t="n">
-        <v>178.1221949227825</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -29007,10 +29007,10 @@
         <v>162.838961015919</v>
       </c>
       <c r="S22" t="n">
-        <v>218.2675279045168</v>
+        <v>22.21117668216917</v>
       </c>
       <c r="T22" t="n">
-        <v>27.47532528912532</v>
+        <v>223.5316765114729</v>
       </c>
       <c r="U22" t="n">
         <v>223.5316765114729</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>135.7432816712511</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7589952089385</v>
+        <v>70.67376913866023</v>
       </c>
       <c r="I24" t="n">
         <v>76.86565315730873</v>
@@ -29165,25 +29165,25 @@
         <v>77.3148555314919</v>
       </c>
       <c r="S24" t="n">
-        <v>163.762064166145</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.2542234760137</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>223.5316765114729</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>223.5316765114729</v>
       </c>
       <c r="W24" t="n">
-        <v>223.5316765114729</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>54.56648414071776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29244,7 +29244,7 @@
         <v>162.838961015919</v>
       </c>
       <c r="S25" t="n">
-        <v>22.21117668216917</v>
+        <v>218.2675279045168</v>
       </c>
       <c r="T25" t="n">
         <v>223.5316765114729</v>
@@ -29256,7 +29256,7 @@
         <v>223.5316765114729</v>
       </c>
       <c r="W25" t="n">
-        <v>223.5316765114729</v>
+        <v>27.47532528912535</v>
       </c>
       <c r="X25" t="n">
         <v>223.5316765114729</v>
@@ -29363,16 +29363,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>28.12989967002079</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7432816712511</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7589952089385</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.86565315730873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,22 +29399,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.3148555314919</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>142.2645487236454</v>
+        <v>57.24076027196691</v>
       </c>
       <c r="U27" t="n">
-        <v>142.2645487236454</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>142.2645487236454</v>
       </c>
       <c r="W27" t="n">
-        <v>142.2645487236454</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29457,13 +29457,13 @@
         <v>142.2645487236454</v>
       </c>
       <c r="K28" t="n">
+        <v>82.31352864458043</v>
+      </c>
+      <c r="L28" t="n">
         <v>142.2645487236454</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
       <c r="M28" t="n">
-        <v>82.3135286445799</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="C29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="D29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="E29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="F29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="G29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="H29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="I29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="J29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="K29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="L29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="M29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="N29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="O29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="P29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="R29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="S29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="T29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="U29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="V29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="W29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="X29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
     </row>
     <row r="30">
@@ -29594,22 +29594,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>57.24076027196686</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>142.2645487236454</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7432816712511</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7589952089385</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.86565315730873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,19 +29639,19 @@
         <v>77.3148555314919</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>93.07959286217397</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="C31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="D31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="E31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="F31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="G31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="H31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="I31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="J31" t="n">
-        <v>72.24677949973714</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="L31" t="n">
-        <v>142.2645487236454</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>142.2645487236454</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>142.2645487236454</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>10.06674914484223</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>82.31352864457874</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="R31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="S31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="T31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="U31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="V31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="W31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="X31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.2645487236454</v>
+        <v>142.2645487236455</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="C32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="D32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="E32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="F32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="G32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="H32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="I32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="J32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="K32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="L32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="M32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="N32" t="n">
-        <v>98.28724947876327</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="O32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="P32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.151617083331</v>
+        <v>98.28724947876412</v>
       </c>
       <c r="R32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="S32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="T32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="U32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="V32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="W32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="X32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
     </row>
     <row r="33">
@@ -29873,25 +29873,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.3148555314919</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>55.35369191228102</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>132.668547443773</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>144.151617083331</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="C34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="D34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="E34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="F34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="G34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="H34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="I34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="J34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>43.9591193472843</v>
       </c>
       <c r="N34" t="n">
-        <v>43.95911934728323</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>144.151617083331</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="R34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="S34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="T34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="U34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="V34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="W34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="X34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.151617083331</v>
+        <v>144.1516170833309</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="C35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="D35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="E35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="F35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="G35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="H35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="I35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>186.7180784377039</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>193.9428786360073</v>
+        <v>101.7615168049435</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="R35" t="n">
-        <v>108.9863170032502</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="S35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="T35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="U35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="V35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="W35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="X35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="Y35" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
     </row>
     <row r="36">
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>120.2963279595611</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7589952089385</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.86565315730873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.762064166145</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="U36" t="n">
-        <v>193.9428786360073</v>
+        <v>80.78797312106573</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30147,13 +30147,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>150.0443203715245</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>147.1977752668085</v>
       </c>
       <c r="G37" t="n">
         <v>167.6549062507864</v>
@@ -30192,25 +30192,25 @@
         <v>162.838961015919</v>
       </c>
       <c r="S37" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="T37" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="U37" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="V37" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="W37" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="X37" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.9428786360073</v>
+        <v>193.9428786360075</v>
       </c>
     </row>
     <row r="38">
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="C38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="D38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="E38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="F38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="G38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="H38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="I38" t="n">
-        <v>185.0542267838861</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="J38" t="n">
-        <v>193.9428786360074</v>
+        <v>101.7615168049433</v>
       </c>
       <c r="K38" t="n">
-        <v>193.9428786360074</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.663851653817687</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.9863170032502</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="S38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="T38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="U38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="V38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="W38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="X38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
     </row>
     <row r="39">
@@ -30314,10 +30314,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>80.78797312106573</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7589952089385</v>
       </c>
       <c r="I39" t="n">
         <v>76.86565315730873</v>
@@ -30350,22 +30350,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.762064166145</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>193.9428786360074</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>193.9428786360074</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>158.366153860139</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>148.0133780302037</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
@@ -30426,28 +30426,28 @@
         <v>60.10922570101302</v>
       </c>
       <c r="R40" t="n">
-        <v>162.838961015919</v>
+        <v>163.8777148729226</v>
       </c>
       <c r="S40" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="T40" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="U40" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="V40" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="W40" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="X40" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
     </row>
     <row r="41">
@@ -30457,40 +30457,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="C41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="D41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="E41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="F41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="H41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="I41" t="n">
-        <v>191.75319998718</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>101.7615168049436</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>193.9428786360074</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>188.9077570865306</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="R41" t="n">
-        <v>108.9863170032502</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="S41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="T41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="U41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="V41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="W41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="X41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
     </row>
     <row r="42">
@@ -30542,22 +30542,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7432816712511</v>
       </c>
       <c r="H42" t="n">
-        <v>91.26112986361551</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.86565315730874</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,13 +30587,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.762064166145</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>158.2400928417241</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30636,10 +30636,10 @@
         <v>159.5475296418569</v>
       </c>
       <c r="I43" t="n">
-        <v>146.7009985865303</v>
+        <v>147.7397524435341</v>
       </c>
       <c r="J43" t="n">
-        <v>72.24677949973716</v>
+        <v>72.24677949973714</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.03875385700475</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.10922570101305</v>
+        <v>60.10922570101302</v>
       </c>
       <c r="R43" t="n">
         <v>162.838961015919</v>
       </c>
       <c r="S43" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="T43" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="U43" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="V43" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="W43" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="X43" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.9428786360074</v>
+        <v>193.9428786360075</v>
       </c>
     </row>
     <row r="44">
@@ -30718,28 +30718,28 @@
         <v>193.9428786360074</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>101.7615168049462</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>193.9428786360074</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>101.7615168049461</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>193.9428786360074</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7432816712511</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.31485553149193</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>163.762064166145</v>
       </c>
       <c r="T45" t="n">
-        <v>188.0977659558195</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>193.9428786360074</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>129.6693398160605</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>181.1224453476885</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30864,7 +30864,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>147.1977752668092</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>167.6549062507864</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5231847761944861</v>
+        <v>0.523184776194486</v>
       </c>
       <c r="H11" t="n">
-        <v>5.358066089201782</v>
+        <v>5.358066089201781</v>
       </c>
       <c r="I11" t="n">
-        <v>20.17008108423795</v>
+        <v>20.17008108423794</v>
       </c>
       <c r="J11" t="n">
-        <v>44.40465389853681</v>
+        <v>44.40465389853679</v>
       </c>
       <c r="K11" t="n">
-        <v>66.55106547484941</v>
+        <v>66.55106547484939</v>
       </c>
       <c r="L11" t="n">
-        <v>82.56248156931144</v>
+        <v>82.56248156931142</v>
       </c>
       <c r="M11" t="n">
-        <v>91.86666883296013</v>
+        <v>91.8666688329601</v>
       </c>
       <c r="N11" t="n">
-        <v>93.35316757832271</v>
+        <v>93.3531675783227</v>
       </c>
       <c r="O11" t="n">
-        <v>88.15074896003878</v>
+        <v>88.15074896003877</v>
       </c>
       <c r="P11" t="n">
-        <v>75.2346247977374</v>
+        <v>75.23462479773738</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.49807000027235</v>
+        <v>56.49807000027234</v>
       </c>
       <c r="R11" t="n">
-        <v>32.86450569762692</v>
+        <v>32.86450569762691</v>
       </c>
       <c r="S11" t="n">
         <v>11.92207308753186</v>
@@ -31792,7 +31792,7 @@
         <v>2.290241357791364</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04185478209555888</v>
+        <v>0.04185478209555887</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2799285337912293</v>
+        <v>0.2799285337912292</v>
       </c>
       <c r="H12" t="n">
-        <v>2.703520313194241</v>
+        <v>2.70352031319424</v>
       </c>
       <c r="I12" t="n">
-        <v>9.637890308162939</v>
+        <v>9.637890308162937</v>
       </c>
       <c r="J12" t="n">
-        <v>26.4471076596354</v>
+        <v>26.44710765963539</v>
       </c>
       <c r="K12" t="n">
-        <v>45.20231942364776</v>
+        <v>45.20231942364775</v>
       </c>
       <c r="L12" t="n">
-        <v>60.78009677778424</v>
+        <v>60.78009677778422</v>
       </c>
       <c r="M12" t="n">
-        <v>70.92750612771628</v>
+        <v>70.92750612771627</v>
       </c>
       <c r="N12" t="n">
-        <v>72.80474616353555</v>
+        <v>72.80474616353553</v>
       </c>
       <c r="O12" t="n">
-        <v>66.60211917795094</v>
+        <v>66.60211917795093</v>
       </c>
       <c r="P12" t="n">
-        <v>53.45407238685325</v>
+        <v>53.45407238685324</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.73263178710499</v>
+        <v>35.73263178710498</v>
       </c>
       <c r="R12" t="n">
         <v>17.38012422959931</v>
       </c>
       <c r="S12" t="n">
-        <v>5.199549739499365</v>
+        <v>5.199549739499363</v>
       </c>
       <c r="T12" t="n">
         <v>1.128308432254998</v>
@@ -31914,28 +31914,28 @@
         <v>2.086542367059906</v>
       </c>
       <c r="I13" t="n">
-        <v>7.057548210873381</v>
+        <v>7.057548210873379</v>
       </c>
       <c r="J13" t="n">
-        <v>16.5920654280418</v>
+        <v>16.59206542804179</v>
       </c>
       <c r="K13" t="n">
         <v>27.26586037937175</v>
       </c>
       <c r="L13" t="n">
-        <v>34.89091397842299</v>
+        <v>34.89091397842298</v>
       </c>
       <c r="M13" t="n">
-        <v>36.78757672312263</v>
+        <v>36.78757672312262</v>
       </c>
       <c r="N13" t="n">
-        <v>35.91285037292372</v>
+        <v>35.91285037292371</v>
       </c>
       <c r="O13" t="n">
-        <v>33.17132998266606</v>
+        <v>33.17132998266605</v>
       </c>
       <c r="P13" t="n">
-        <v>28.38380332450405</v>
+        <v>28.38380332450404</v>
       </c>
       <c r="Q13" t="n">
         <v>19.65147417483515</v>
@@ -31944,7 +31944,7 @@
         <v>10.55218665386328</v>
       </c>
       <c r="S13" t="n">
-        <v>4.089879056905763</v>
+        <v>4.089879056905762</v>
       </c>
       <c r="T13" t="n">
         <v>1.002735084374391</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5231847761944854</v>
+        <v>0.5231847761944861</v>
       </c>
       <c r="H41" t="n">
-        <v>5.358066089201775</v>
+        <v>5.358066089201782</v>
       </c>
       <c r="I41" t="n">
-        <v>20.17008108423792</v>
+        <v>20.17008108423795</v>
       </c>
       <c r="J41" t="n">
-        <v>44.40465389853675</v>
+        <v>44.40465389853681</v>
       </c>
       <c r="K41" t="n">
-        <v>66.55106547484932</v>
+        <v>66.55106547484941</v>
       </c>
       <c r="L41" t="n">
-        <v>82.56248156931133</v>
+        <v>82.56248156931144</v>
       </c>
       <c r="M41" t="n">
-        <v>91.86666883296</v>
+        <v>91.86666883296013</v>
       </c>
       <c r="N41" t="n">
-        <v>93.3531675783226</v>
+        <v>93.35316757832271</v>
       </c>
       <c r="O41" t="n">
-        <v>88.15074896003867</v>
+        <v>88.15074896003878</v>
       </c>
       <c r="P41" t="n">
-        <v>75.23462479773731</v>
+        <v>75.2346247977374</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.49807000027228</v>
+        <v>56.49807000027235</v>
       </c>
       <c r="R41" t="n">
-        <v>32.86450569762687</v>
+        <v>32.86450569762692</v>
       </c>
       <c r="S41" t="n">
-        <v>11.92207308753185</v>
+        <v>11.92207308753186</v>
       </c>
       <c r="T41" t="n">
-        <v>2.290241357791361</v>
+        <v>2.290241357791364</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04185478209555882</v>
+        <v>0.04185478209555888</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2799285337912289</v>
+        <v>0.2799285337912293</v>
       </c>
       <c r="H42" t="n">
-        <v>2.703520313194237</v>
+        <v>2.703520313194241</v>
       </c>
       <c r="I42" t="n">
-        <v>9.637890308162927</v>
+        <v>9.637890308162939</v>
       </c>
       <c r="J42" t="n">
-        <v>26.44710765963536</v>
+        <v>26.4471076596354</v>
       </c>
       <c r="K42" t="n">
-        <v>45.2023194236477</v>
+        <v>45.20231942364776</v>
       </c>
       <c r="L42" t="n">
-        <v>60.78009677778416</v>
+        <v>60.78009677778424</v>
       </c>
       <c r="M42" t="n">
-        <v>70.92750612771619</v>
+        <v>70.92750612771628</v>
       </c>
       <c r="N42" t="n">
-        <v>72.80474616353546</v>
+        <v>72.80474616353555</v>
       </c>
       <c r="O42" t="n">
-        <v>66.60211917795085</v>
+        <v>66.60211917795094</v>
       </c>
       <c r="P42" t="n">
-        <v>53.45407238685318</v>
+        <v>53.45407238685325</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.73263178710494</v>
+        <v>35.73263178710499</v>
       </c>
       <c r="R42" t="n">
-        <v>17.38012422959929</v>
+        <v>17.38012422959931</v>
       </c>
       <c r="S42" t="n">
-        <v>5.199549739499358</v>
+        <v>5.199549739499365</v>
       </c>
       <c r="T42" t="n">
-        <v>1.128308432254997</v>
+        <v>1.128308432254998</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0184163509073177</v>
+        <v>0.01841635090731772</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2346826793216658</v>
+        <v>0.2346826793216661</v>
       </c>
       <c r="H43" t="n">
-        <v>2.086542367059903</v>
+        <v>2.086542367059906</v>
       </c>
       <c r="I43" t="n">
-        <v>7.057548210873372</v>
+        <v>7.057548210873381</v>
       </c>
       <c r="J43" t="n">
-        <v>16.59206542804177</v>
+        <v>16.5920654280418</v>
       </c>
       <c r="K43" t="n">
-        <v>27.26586037937172</v>
+        <v>27.26586037937175</v>
       </c>
       <c r="L43" t="n">
-        <v>34.89091397842294</v>
+        <v>34.89091397842299</v>
       </c>
       <c r="M43" t="n">
-        <v>36.78757672312258</v>
+        <v>36.78757672312263</v>
       </c>
       <c r="N43" t="n">
-        <v>35.91285037292367</v>
+        <v>35.91285037292372</v>
       </c>
       <c r="O43" t="n">
-        <v>33.17132998266602</v>
+        <v>33.17132998266606</v>
       </c>
       <c r="P43" t="n">
-        <v>28.38380332450401</v>
+        <v>28.38380332450405</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.65147417483513</v>
+        <v>19.65147417483515</v>
       </c>
       <c r="R43" t="n">
-        <v>10.55218665386326</v>
+        <v>10.55218665386328</v>
       </c>
       <c r="S43" t="n">
-        <v>4.089879056905757</v>
+        <v>4.089879056905763</v>
       </c>
       <c r="T43" t="n">
-        <v>1.00273508437439</v>
+        <v>1.002735084374391</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01280087341754542</v>
+        <v>0.01280087341754544</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.728269603747799e-12</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.296703792355879e-12</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="O8" t="n">
-        <v>7.293863480540836</v>
+        <v>6.999161925771512</v>
       </c>
       <c r="P8" t="n">
-        <v>6.999161925771512</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6.999161925771512</v>
+      </c>
+      <c r="P9" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="M9" t="n">
+      <c r="Q9" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.999161925771512</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.74537676397439</v>
+        <v>43.74537676397438</v>
       </c>
       <c r="K11" t="n">
         <v>189.0746897800047</v>
       </c>
       <c r="L11" t="n">
-        <v>287.0578901060423</v>
+        <v>287.0578901060422</v>
       </c>
       <c r="M11" t="n">
         <v>334.773166268915</v>
       </c>
       <c r="N11" t="n">
-        <v>324.5162319601101</v>
+        <v>324.51623196011</v>
       </c>
       <c r="O11" t="n">
         <v>259.8371813371494</v>
       </c>
       <c r="P11" t="n">
-        <v>184.4531104346916</v>
+        <v>184.4531104346915</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.55761265898497</v>
+        <v>60.55761265898495</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.91509841366054</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>185.8507629167295</v>
@@ -35498,13 +35498,13 @@
         <v>416.6800893537484</v>
       </c>
       <c r="N12" t="n">
-        <v>27.25709428338065</v>
+        <v>425.2997721216259</v>
       </c>
       <c r="O12" t="n">
-        <v>337.1875928924163</v>
+        <v>227.0903180112472</v>
       </c>
       <c r="P12" t="n">
-        <v>254.0303045434159</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>117.7307812985171</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.62223683433621</v>
+        <v>49.62223683433604</v>
       </c>
       <c r="K13" t="n">
-        <v>134.3604669956117</v>
+        <v>134.3604669956116</v>
       </c>
       <c r="L13" t="n">
-        <v>194.2210605415056</v>
+        <v>194.2210605415054</v>
       </c>
       <c r="M13" t="n">
-        <v>208.8540010541046</v>
+        <v>208.8540010541044</v>
       </c>
       <c r="N13" t="n">
-        <v>211.978886371635</v>
+        <v>211.9788863716348</v>
       </c>
       <c r="O13" t="n">
-        <v>189.6085543467105</v>
+        <v>189.6085543467103</v>
       </c>
       <c r="P13" t="n">
-        <v>156.3748415572612</v>
+        <v>156.374841557261</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.75979063306033</v>
+        <v>61.75979063306016</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.91509841366054</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>99.17162068648859</v>
+        <v>185.8507629167295</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>311.3635356080044</v>
       </c>
       <c r="M15" t="n">
         <v>416.6800893537484</v>
       </c>
       <c r="N15" t="n">
-        <v>425.299772121626</v>
+        <v>425.2997721216259</v>
       </c>
       <c r="O15" t="n">
         <v>337.1875928924163</v>
       </c>
       <c r="P15" t="n">
-        <v>254.0303045434159</v>
+        <v>7.633506417347933</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.7307812985171</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.62223683433609</v>
+        <v>49.62223683433604</v>
       </c>
       <c r="K16" t="n">
         <v>134.3604669956116</v>
       </c>
       <c r="L16" t="n">
-        <v>194.2210605415055</v>
+        <v>194.2210605415054</v>
       </c>
       <c r="M16" t="n">
-        <v>208.8540010541045</v>
+        <v>208.8540010541044</v>
       </c>
       <c r="N16" t="n">
-        <v>211.9788863716349</v>
+        <v>211.9788863716348</v>
       </c>
       <c r="O16" t="n">
-        <v>189.6085543467104</v>
+        <v>189.6085543467103</v>
       </c>
       <c r="P16" t="n">
         <v>156.3748415572611</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.75979063306022</v>
+        <v>61.75979063306016</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.91509841366054</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>416.6800893537484</v>
       </c>
       <c r="N18" t="n">
-        <v>425.299772121626</v>
+        <v>425.2997721216259</v>
       </c>
       <c r="O18" t="n">
         <v>337.1875928924163</v>
       </c>
       <c r="P18" t="n">
-        <v>159.569170920417</v>
+        <v>193.4842693340773</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.74537676397456</v>
+        <v>43.74537676397433</v>
       </c>
       <c r="K20" t="n">
         <v>189.0746897800047</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.91509841366054</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>185.8507629167295</v>
       </c>
       <c r="L21" t="n">
-        <v>167.3511623131749</v>
+        <v>311.3635356080044</v>
       </c>
       <c r="M21" t="n">
         <v>416.6800893537484</v>
       </c>
       <c r="N21" t="n">
-        <v>425.299772121626</v>
+        <v>178.902973995558</v>
       </c>
       <c r="O21" t="n">
         <v>337.1875928924163</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>254.0303045434159</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.7307812985171</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>416.6800893537484</v>
       </c>
       <c r="N24" t="n">
-        <v>425.299772121626</v>
+        <v>425.2997721216259</v>
       </c>
       <c r="O24" t="n">
         <v>337.1875928924163</v>
       </c>
       <c r="P24" t="n">
-        <v>75.75348803556052</v>
+        <v>193.4842693340773</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.7307812985171</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>186.0099254876198</v>
       </c>
       <c r="K26" t="n">
-        <v>331.3392385036502</v>
+        <v>331.3392385036501</v>
       </c>
       <c r="L26" t="n">
         <v>429.3224388296877</v>
       </c>
       <c r="M26" t="n">
-        <v>477.0377149925605</v>
+        <v>477.0377149925604</v>
       </c>
       <c r="N26" t="n">
-        <v>466.7807806837555</v>
+        <v>466.7807806837554</v>
       </c>
       <c r="O26" t="n">
         <v>402.1017300607948</v>
       </c>
       <c r="P26" t="n">
-        <v>326.717659158337</v>
+        <v>326.7176591583369</v>
       </c>
       <c r="Q26" t="n">
         <v>202.8221613826304</v>
       </c>
       <c r="R26" t="n">
-        <v>33.27823172039527</v>
+        <v>33.27823172039523</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>70.01776922390827</v>
+        <v>70.01776922390825</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7559993851838</v>
+        <v>94.80497930611882</v>
       </c>
       <c r="L28" t="n">
-        <v>72.35204420743227</v>
+        <v>214.6165929310777</v>
       </c>
       <c r="M28" t="n">
-        <v>169.2985133646111</v>
+        <v>86.98498472003119</v>
       </c>
       <c r="N28" t="n">
         <v>90.10987003756162</v>
@@ -36771,7 +36771,7 @@
         <v>176.7703739468333</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.1553230226324</v>
+        <v>82.15532302263237</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>331.3392385036502</v>
       </c>
       <c r="L29" t="n">
-        <v>429.3224388296877</v>
+        <v>429.3224388296878</v>
       </c>
       <c r="M29" t="n">
         <v>477.0377149925605</v>
@@ -36853,7 +36853,7 @@
         <v>202.8221613826304</v>
       </c>
       <c r="R29" t="n">
-        <v>33.27823172039529</v>
+        <v>33.27823172039532</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>70.01776922390833</v>
       </c>
       <c r="K31" t="n">
-        <v>12.4914506615384</v>
+        <v>154.7559993851839</v>
       </c>
       <c r="L31" t="n">
-        <v>214.6165929310777</v>
+        <v>72.35204420743227</v>
       </c>
       <c r="M31" t="n">
-        <v>229.2495334436766</v>
+        <v>86.98498472003119</v>
       </c>
       <c r="N31" t="n">
-        <v>232.3744187612071</v>
+        <v>90.10987003756162</v>
       </c>
       <c r="O31" t="n">
-        <v>77.80628715747936</v>
+        <v>210.0040867362826</v>
       </c>
       <c r="P31" t="n">
-        <v>34.50582522318788</v>
+        <v>116.8193538677666</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.15532302263243</v>
+        <v>82.15532302263246</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>187.8969938473054</v>
+        <v>187.8969938473053</v>
       </c>
       <c r="K32" t="n">
         <v>333.2263068633357</v>
       </c>
       <c r="L32" t="n">
-        <v>431.2095071893733</v>
+        <v>431.2095071893732</v>
       </c>
       <c r="M32" t="n">
-        <v>478.9247833522461</v>
+        <v>478.924783352246</v>
       </c>
       <c r="N32" t="n">
-        <v>422.8034814388733</v>
+        <v>468.667849043441</v>
       </c>
       <c r="O32" t="n">
-        <v>403.9887984204804</v>
+        <v>403.9887984204803</v>
       </c>
       <c r="P32" t="n">
         <v>328.6047275180225</v>
       </c>
       <c r="Q32" t="n">
-        <v>204.709229742316</v>
+        <v>158.8448621377491</v>
       </c>
       <c r="R32" t="n">
-        <v>35.16530008008083</v>
+        <v>35.16530008008078</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.90483758359385</v>
+        <v>71.90483758359379</v>
       </c>
       <c r="K34" t="n">
         <v>12.4914506615384</v>
       </c>
       <c r="L34" t="n">
-        <v>72.35204420743227</v>
+        <v>216.5036612907632</v>
       </c>
       <c r="M34" t="n">
-        <v>86.98498472003119</v>
+        <v>130.9441040673155</v>
       </c>
       <c r="N34" t="n">
-        <v>134.0689893848449</v>
+        <v>90.10987003756162</v>
       </c>
       <c r="O34" t="n">
-        <v>211.8911550959681</v>
+        <v>67.73953801263713</v>
       </c>
       <c r="P34" t="n">
-        <v>178.6574423065189</v>
+        <v>178.6574423065188</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.04239138231797</v>
+        <v>84.04239138231792</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.888651852121253</v>
+        <v>8.888651852121395</v>
       </c>
       <c r="J35" t="n">
         <v>43.74537676397439</v>
@@ -37312,7 +37312,7 @@
         <v>287.0578901060423</v>
       </c>
       <c r="M35" t="n">
-        <v>521.4912447066189</v>
+        <v>334.773166268915</v>
       </c>
       <c r="N35" t="n">
         <v>324.5162319601101</v>
@@ -37321,13 +37321,13 @@
         <v>259.8371813371494</v>
       </c>
       <c r="P35" t="n">
-        <v>378.3959890706989</v>
+        <v>286.2146272396351</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.55761265898497</v>
+        <v>254.5004912949924</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>84.95656163275731</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>33.91509841366054</v>
+        <v>7.459155423289466</v>
       </c>
       <c r="K36" t="n">
         <v>185.8507629167295</v>
@@ -37403,7 +37403,7 @@
         <v>254.0303045434159</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.27483830814853</v>
+        <v>117.7307812985171</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37443,13 +37443,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.038753857005098</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.038753857004065</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.888651852121452</v>
       </c>
       <c r="J38" t="n">
-        <v>237.6882553999818</v>
+        <v>145.5068935689177</v>
       </c>
       <c r="K38" t="n">
-        <v>383.0175684160121</v>
+        <v>189.0746897800047</v>
       </c>
       <c r="L38" t="n">
         <v>287.0578901060423</v>
@@ -37558,16 +37558,16 @@
         <v>259.8371813371494</v>
       </c>
       <c r="P38" t="n">
-        <v>186.1169620885092</v>
+        <v>378.3959890706991</v>
       </c>
       <c r="Q38" t="n">
         <v>60.55761265898497</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>84.95656163275737</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.49213974509621e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>416.6800893537484</v>
       </c>
       <c r="N39" t="n">
-        <v>443.2626461995812</v>
+        <v>416.8067032092102</v>
       </c>
       <c r="O39" t="n">
         <v>337.1875928924163</v>
       </c>
       <c r="P39" t="n">
-        <v>227.5743615530473</v>
+        <v>254.0303045434159</v>
       </c>
       <c r="Q39" t="n">
         <v>117.7307812985171</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.038753857004467</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.038753857003634</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.698973203293948</v>
+        <v>8.888651852121424</v>
       </c>
       <c r="J41" t="n">
-        <v>43.74537676397433</v>
+        <v>145.506893568918</v>
       </c>
       <c r="K41" t="n">
-        <v>189.0746897800046</v>
+        <v>189.0746897800047</v>
       </c>
       <c r="L41" t="n">
-        <v>481.0007687420496</v>
+        <v>287.0578901060423</v>
       </c>
       <c r="M41" t="n">
-        <v>523.6809233554455</v>
+        <v>334.773166268915</v>
       </c>
       <c r="N41" t="n">
-        <v>324.51623196011</v>
+        <v>324.5162319601101</v>
       </c>
       <c r="O41" t="n">
-        <v>259.8371813371493</v>
+        <v>259.8371813371494</v>
       </c>
       <c r="P41" t="n">
-        <v>184.4531104346914</v>
+        <v>184.4531104346916</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.55761265898489</v>
+        <v>254.5004912949925</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>84.95656163275734</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.459155423291446</v>
+        <v>7.459155423289466</v>
       </c>
       <c r="K42" t="n">
         <v>185.8507629167295</v>
       </c>
       <c r="L42" t="n">
-        <v>311.3635356080043</v>
+        <v>311.3635356080044</v>
       </c>
       <c r="M42" t="n">
-        <v>416.6800893537483</v>
+        <v>416.6800893537484</v>
       </c>
       <c r="N42" t="n">
-        <v>443.2626461995811</v>
+        <v>443.2626461995812</v>
       </c>
       <c r="O42" t="n">
-        <v>337.1875928924162</v>
+        <v>337.1875928924163</v>
       </c>
       <c r="P42" t="n">
-        <v>254.0303045434158</v>
+        <v>254.0303045434159</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.730781298517</v>
+        <v>117.7307812985171</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37932,28 +37932,28 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.038753857003893</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.49145066153837</v>
+        <v>12.4914506615384</v>
       </c>
       <c r="L43" t="n">
-        <v>72.35204420743223</v>
+        <v>72.35204420743227</v>
       </c>
       <c r="M43" t="n">
-        <v>86.98498472003115</v>
+        <v>86.98498472003119</v>
       </c>
       <c r="N43" t="n">
-        <v>91.14862389456631</v>
+        <v>90.10987003756162</v>
       </c>
       <c r="O43" t="n">
-        <v>67.73953801263707</v>
+        <v>67.73953801263713</v>
       </c>
       <c r="P43" t="n">
-        <v>34.50582522318786</v>
+        <v>34.50582522318788</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>8.88865185212131</v>
       </c>
       <c r="J44" t="n">
-        <v>237.6882553999818</v>
+        <v>43.74537676397433</v>
       </c>
       <c r="K44" t="n">
-        <v>189.0746897800046</v>
+        <v>290.8362065849508</v>
       </c>
       <c r="L44" t="n">
         <v>287.0578901060422</v>
@@ -38029,13 +38029,13 @@
         <v>324.51623196011</v>
       </c>
       <c r="O44" t="n">
-        <v>361.5986981420954</v>
+        <v>259.8371813371493</v>
       </c>
       <c r="P44" t="n">
         <v>184.4531104346914</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.55761265898489</v>
+        <v>254.5004912949923</v>
       </c>
       <c r="R44" t="n">
         <v>84.9565616327572</v>
@@ -38102,7 +38102,7 @@
         <v>311.3635356080043</v>
       </c>
       <c r="M45" t="n">
-        <v>390.2241463633792</v>
+        <v>416.6800893537483</v>
       </c>
       <c r="N45" t="n">
         <v>443.2626461995811</v>
@@ -38114,7 +38114,7 @@
         <v>254.0303045434158</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.730781298517</v>
+        <v>91.27483830814784</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.038753857004732</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.038753857004732</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
